--- a/scripts/ESO-2.2m/schedules/P109/schedule-ESO-2.2m-P109.xlsx
+++ b/scripts/ESO-2.2m/schedules/P109/schedule-ESO-2.2m-P109.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="43">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -106,15 +106,15 @@
     <t xml:space="preserve">Sam, Angela</t>
   </si>
   <si>
-    <t xml:space="preserve">Downtime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dome repair</t>
+    <t xml:space="preserve">MPE</t>
   </si>
   <si>
     <t xml:space="preserve">Paul, Angela</t>
   </si>
   <si>
+    <t xml:space="preserve">Henning</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maren, Angela</t>
   </si>
   <si>
@@ -127,19 +127,13 @@
     <t xml:space="preserve">Régis, Paul</t>
   </si>
   <si>
-    <t xml:space="preserve">MPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Henning</t>
+    <t xml:space="preserve">Sam, Régis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maren, Régis</t>
   </si>
   <si>
     <t xml:space="preserve">Chini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sam, Régis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maren, Régis</t>
   </si>
   <si>
     <t xml:space="preserve">Hobson, Weather</t>
@@ -168,7 +162,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="ddd\ dd\ mmm\ yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -222,13 +216,25 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Andale Mono"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="&quot;Calibri&quot;"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,30 +244,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB2B2B2"/>
-        <bgColor rgb="FFA2C4C9"/>
+        <bgColor rgb="FFB4C7DC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C7DC"/>
-        <bgColor rgb="FFA2C4C9"/>
+        <bgColor rgb="FF99CCFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD5CDC4"/>
-        <bgColor rgb="FFB4C7DC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCF60"/>
-        <bgColor rgb="FFFFCC00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA2C4C9"/>
         <bgColor rgb="FFB4C7DC"/>
       </patternFill>
     </fill>
@@ -300,7 +294,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -345,20 +339,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -373,32 +363,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -452,10 +434,10 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FFA2C4C9"/>
+      <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCF60"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -485,12 +467,12 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F76" activeCellId="0" sqref="F76"/>
+      <selection pane="bottomLeft" activeCell="C66" activeCellId="0" sqref="C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.19140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.78"/>
@@ -1510,14 +1492,14 @@
       <c r="B51" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="C51" s="13"/>
       <c r="D51" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E51" s="13"/>
-      <c r="F51" s="14"/>
+      <c r="F51" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G51" s="7"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1528,14 +1510,14 @@
       <c r="B52" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C52" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="C52" s="13"/>
       <c r="D52" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E52" s="13"/>
-      <c r="F52" s="14"/>
+      <c r="F52" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G52" s="7"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1546,14 +1528,14 @@
       <c r="B53" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C53" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="C53" s="13"/>
       <c r="D53" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E53" s="13"/>
-      <c r="F53" s="14"/>
+      <c r="F53" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G53" s="7"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1564,14 +1546,14 @@
       <c r="B54" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="13"/>
+      <c r="D54" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D54" s="13" t="s">
-        <v>29</v>
-      </c>
       <c r="E54" s="13"/>
-      <c r="F54" s="14"/>
+      <c r="F54" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G54" s="7"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1582,14 +1564,14 @@
       <c r="B55" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C55" s="13"/>
+      <c r="D55" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D55" s="13" t="s">
-        <v>29</v>
-      </c>
       <c r="E55" s="13"/>
-      <c r="F55" s="14"/>
+      <c r="F55" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G55" s="7"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1600,14 +1582,14 @@
       <c r="B56" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C56" s="13"/>
+      <c r="D56" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D56" s="13" t="s">
-        <v>29</v>
-      </c>
       <c r="E56" s="13"/>
-      <c r="F56" s="14"/>
+      <c r="F56" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G56" s="7"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1618,14 +1600,14 @@
       <c r="B57" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C57" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="C57" s="13"/>
       <c r="D57" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E57" s="13"/>
-      <c r="F57" s="14"/>
+      <c r="F57" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G57" s="7"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1636,14 +1618,14 @@
       <c r="B58" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="C58" s="13"/>
       <c r="D58" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E58" s="13"/>
-      <c r="F58" s="14"/>
+      <c r="F58" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G58" s="7"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1654,14 +1636,14 @@
       <c r="B59" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C59" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="C59" s="13"/>
       <c r="D59" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E59" s="13"/>
-      <c r="F59" s="14"/>
+      <c r="F59" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G59" s="7"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1672,14 +1654,14 @@
       <c r="B60" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C60" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="C60" s="13"/>
       <c r="D60" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E60" s="13"/>
-      <c r="F60" s="14"/>
+      <c r="F60" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G60" s="7"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1690,14 +1672,14 @@
       <c r="B61" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C61" s="13"/>
+      <c r="D61" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D61" s="13" t="s">
-        <v>29</v>
-      </c>
       <c r="E61" s="13"/>
-      <c r="F61" s="14"/>
+      <c r="F61" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G61" s="7"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1708,685 +1690,731 @@
       <c r="B62" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C62" s="13"/>
+      <c r="D62" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D62" s="13" t="s">
-        <v>29</v>
-      </c>
       <c r="E62" s="13"/>
-      <c r="F62" s="14"/>
+      <c r="F62" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G62" s="7"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="11" t="n">
+      <c r="A63" s="14" t="n">
         <f aca="false">A62+1</f>
         <v>44713</v>
       </c>
-      <c r="B63" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C63" s="13" t="s">
+      <c r="B63" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E63" s="13"/>
-      <c r="F63" s="14"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G63" s="7"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="11" t="n">
+      <c r="A64" s="14" t="n">
         <f aca="false">A63+1</f>
         <v>44714</v>
       </c>
-      <c r="B64" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D64" s="13" t="s">
+      <c r="B64" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E64" s="13"/>
-      <c r="F64" s="14"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G64" s="7"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="11" t="n">
+      <c r="A65" s="14" t="n">
         <f aca="false">A64+1</f>
         <v>44715</v>
       </c>
-      <c r="B65" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D65" s="13" t="s">
+      <c r="B65" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E65" s="13"/>
-      <c r="F65" s="14"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G65" s="7"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="11" t="n">
+      <c r="A66" s="14" t="n">
         <f aca="false">A65+1</f>
         <v>44716</v>
       </c>
-      <c r="B66" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D66" s="13" t="s">
+      <c r="B66" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E66" s="13"/>
-      <c r="F66" s="14"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G66" s="7"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="11" t="n">
+      <c r="A67" s="14" t="n">
         <f aca="false">A66+1</f>
         <v>44717</v>
       </c>
-      <c r="B67" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D67" s="13" t="s">
+      <c r="B67" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E67" s="13"/>
-      <c r="F67" s="14"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G67" s="7"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="11" t="n">
+      <c r="A68" s="14" t="n">
         <f aca="false">A67+1</f>
         <v>44718</v>
       </c>
-      <c r="B68" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D68" s="13" t="s">
+      <c r="B68" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E68" s="13"/>
-      <c r="F68" s="14"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G68" s="7"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="11" t="n">
+      <c r="A69" s="14" t="n">
         <f aca="false">A68+1</f>
         <v>44719</v>
       </c>
-      <c r="B69" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D69" s="13" t="s">
+      <c r="B69" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E69" s="13"/>
-      <c r="F69" s="14"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G69" s="7"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="11" t="n">
+      <c r="A70" s="14" t="n">
         <f aca="false">A69+1</f>
         <v>44720</v>
       </c>
-      <c r="B70" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D70" s="13" t="s">
+      <c r="B70" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E70" s="13"/>
-      <c r="F70" s="14"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G70" s="7"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="11" t="n">
+      <c r="A71" s="14" t="n">
         <f aca="false">A70+1</f>
         <v>44721</v>
       </c>
-      <c r="B71" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D71" s="13" t="s">
+      <c r="B71" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E71" s="13"/>
-      <c r="F71" s="14"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G71" s="7"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="11" t="n">
+      <c r="A72" s="14" t="n">
         <f aca="false">A71+1</f>
         <v>44722</v>
       </c>
-      <c r="B72" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D72" s="13" t="s">
+      <c r="B72" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E72" s="13"/>
-      <c r="F72" s="14"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G72" s="7"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="11" t="n">
+      <c r="A73" s="14" t="n">
         <f aca="false">A72+1</f>
         <v>44723</v>
       </c>
-      <c r="B73" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D73" s="13" t="s">
+      <c r="B73" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E73" s="13"/>
-      <c r="F73" s="14"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G73" s="7"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="15" t="n">
+      <c r="A74" s="14" t="n">
         <f aca="false">A73+1</f>
         <v>44724</v>
       </c>
-      <c r="B74" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C74" s="17" t="s">
+      <c r="B74" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D74" s="17" t="s">
+      <c r="D74" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E74" s="17"/>
+      <c r="E74" s="16"/>
       <c r="F74" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="7"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="15" t="n">
+      <c r="A75" s="17" t="n">
         <f aca="false">A74+1</f>
         <v>44725</v>
       </c>
-      <c r="B75" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C75" s="17" t="s">
+      <c r="B75" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D75" s="17" t="s">
+      <c r="D75" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E75" s="17"/>
+      <c r="E75" s="19"/>
       <c r="F75" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="7"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="15" t="n">
+      <c r="A76" s="17" t="n">
         <f aca="false">A75+1</f>
         <v>44726</v>
       </c>
-      <c r="B76" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C76" s="17" t="s">
+      <c r="B76" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D76" s="17" t="s">
+      <c r="D76" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E76" s="17"/>
+      <c r="E76" s="19"/>
       <c r="F76" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="7"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="15" t="n">
+      <c r="A77" s="17" t="n">
         <f aca="false">A76+1</f>
         <v>44727</v>
       </c>
-      <c r="B77" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C77" s="17" t="s">
+      <c r="B77" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D77" s="17" t="s">
+      <c r="D77" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E77" s="17"/>
+      <c r="E77" s="19"/>
       <c r="F77" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="7"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="15" t="n">
+      <c r="A78" s="17" t="n">
         <f aca="false">A77+1</f>
         <v>44728</v>
       </c>
-      <c r="B78" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C78" s="17" t="s">
+      <c r="B78" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D78" s="17" t="s">
+      <c r="D78" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E78" s="17"/>
+      <c r="E78" s="19"/>
       <c r="F78" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="7"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="15" t="n">
+      <c r="A79" s="17" t="n">
         <f aca="false">A78+1</f>
         <v>44729</v>
       </c>
-      <c r="B79" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C79" s="17" t="s">
+      <c r="B79" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D79" s="17" t="s">
+      <c r="D79" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E79" s="17"/>
+      <c r="E79" s="19"/>
       <c r="F79" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="7"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="15" t="n">
+      <c r="A80" s="17" t="n">
         <f aca="false">A79+1</f>
         <v>44730</v>
       </c>
-      <c r="B80" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C80" s="17" t="s">
+      <c r="B80" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D80" s="17" t="s">
+      <c r="D80" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E80" s="17"/>
+      <c r="E80" s="19"/>
       <c r="F80" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="7"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="15" t="n">
+      <c r="A81" s="17" t="n">
         <f aca="false">A80+1</f>
         <v>44731</v>
       </c>
-      <c r="B81" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C81" s="17" t="s">
+      <c r="B81" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D81" s="17" t="s">
+      <c r="D81" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E81" s="17"/>
+      <c r="E81" s="19"/>
       <c r="F81" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="7"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="18" t="n">
+      <c r="A82" s="8" t="n">
         <f aca="false">A81+1</f>
         <v>44732</v>
       </c>
-      <c r="B82" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C82" s="19" t="s">
+      <c r="B82" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D82" s="20" t="s">
+      <c r="D82" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E82" s="20"/>
+      <c r="E82" s="10"/>
       <c r="F82" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="7"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="18" t="n">
+      <c r="A83" s="8" t="n">
         <f aca="false">A82+1</f>
         <v>44733</v>
       </c>
-      <c r="B83" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C83" s="17" t="s">
+      <c r="B83" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D83" s="20" t="s">
+      <c r="D83" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E83" s="20"/>
+      <c r="E83" s="10"/>
       <c r="F83" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="7"/>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="18" t="n">
+      <c r="A84" s="8" t="n">
         <f aca="false">A83+1</f>
         <v>44734</v>
       </c>
-      <c r="B84" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C84" s="17" t="s">
+      <c r="B84" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D84" s="20" t="s">
+      <c r="D84" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E84" s="20"/>
+      <c r="E84" s="10"/>
       <c r="F84" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="7"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="18" t="n">
+      <c r="A85" s="8" t="n">
         <f aca="false">A84+1</f>
         <v>44735</v>
       </c>
-      <c r="B85" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C85" s="17" t="s">
+      <c r="B85" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D85" s="20" t="s">
+      <c r="D85" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E85" s="20"/>
+      <c r="E85" s="10"/>
       <c r="F85" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="7"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="18" t="n">
+      <c r="A86" s="8" t="n">
         <f aca="false">A85+1</f>
         <v>44736</v>
       </c>
-      <c r="B86" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C86" s="17" t="s">
+      <c r="B86" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D86" s="20" t="s">
+      <c r="D86" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E86" s="20"/>
+      <c r="E86" s="10"/>
       <c r="F86" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="7"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="21" t="n">
+      <c r="A87" s="14" t="n">
         <f aca="false">A86+1</f>
         <v>44737</v>
       </c>
-      <c r="B87" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C87" s="23"/>
-      <c r="D87" s="23" t="s">
+      <c r="B87" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E87" s="23"/>
+      <c r="E87" s="21"/>
       <c r="F87" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="7"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="21" t="n">
+      <c r="A88" s="14" t="n">
         <f aca="false">A87+1</f>
         <v>44738</v>
       </c>
-      <c r="B88" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C88" s="23"/>
-      <c r="D88" s="23" t="s">
+      <c r="B88" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E88" s="23"/>
+      <c r="E88" s="21"/>
       <c r="F88" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="7"/>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="21" t="n">
+      <c r="A89" s="14" t="n">
         <f aca="false">A88+1</f>
         <v>44739</v>
       </c>
-      <c r="B89" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C89" s="23"/>
-      <c r="D89" s="23" t="s">
+      <c r="B89" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E89" s="23"/>
+      <c r="E89" s="21"/>
       <c r="F89" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="7"/>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="21" t="n">
+      <c r="A90" s="14" t="n">
         <f aca="false">A89+1</f>
         <v>44740</v>
       </c>
-      <c r="B90" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C90" s="23"/>
-      <c r="D90" s="23" t="s">
+      <c r="B90" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E90" s="23"/>
+      <c r="E90" s="21"/>
       <c r="F90" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="7"/>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="21" t="n">
+      <c r="A91" s="14" t="n">
         <f aca="false">A90+1</f>
         <v>44741</v>
       </c>
-      <c r="B91" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C91" s="23"/>
-      <c r="D91" s="23" t="s">
+      <c r="B91" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E91" s="23"/>
+      <c r="E91" s="21"/>
       <c r="F91" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="7"/>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="21" t="n">
+      <c r="A92" s="14" t="n">
         <f aca="false">A91+1</f>
         <v>44742</v>
       </c>
-      <c r="B92" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C92" s="23"/>
-      <c r="D92" s="23" t="s">
+      <c r="B92" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E92" s="23"/>
+      <c r="E92" s="21"/>
       <c r="F92" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="7"/>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="21" t="n">
+      <c r="A93" s="14" t="n">
         <f aca="false">A92+1</f>
         <v>44743</v>
       </c>
-      <c r="B93" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C93" s="23"/>
-      <c r="D93" s="23" t="s">
+      <c r="B93" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E93" s="23"/>
+      <c r="E93" s="21"/>
       <c r="F93" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="7"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="21" t="n">
+      <c r="A94" s="14" t="n">
         <f aca="false">A93+1</f>
         <v>44744</v>
       </c>
-      <c r="B94" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C94" s="23"/>
-      <c r="D94" s="23" t="s">
+      <c r="B94" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E94" s="23"/>
+      <c r="E94" s="21"/>
       <c r="F94" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="7"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="21" t="n">
+      <c r="A95" s="14" t="n">
         <f aca="false">A94+1</f>
         <v>44745</v>
       </c>
-      <c r="B95" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C95" s="23"/>
-      <c r="D95" s="23" t="s">
+      <c r="B95" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E95" s="23"/>
+      <c r="E95" s="21"/>
       <c r="F95" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="7"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="21" t="n">
+      <c r="A96" s="14" t="n">
         <f aca="false">A95+1</f>
         <v>44746</v>
       </c>
-      <c r="B96" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C96" s="23"/>
-      <c r="D96" s="23" t="s">
+      <c r="B96" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E96" s="23"/>
+      <c r="E96" s="21"/>
       <c r="F96" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="7"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="21" t="n">
+      <c r="A97" s="14" t="n">
         <f aca="false">A96+1</f>
         <v>44747</v>
       </c>
-      <c r="B97" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C97" s="23"/>
-      <c r="D97" s="23" t="s">
+      <c r="B97" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E97" s="23"/>
+      <c r="E97" s="21"/>
       <c r="F97" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="7"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="21" t="n">
+      <c r="A98" s="14" t="n">
         <f aca="false">A97+1</f>
         <v>44748</v>
       </c>
-      <c r="B98" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C98" s="23"/>
-      <c r="D98" s="23" t="s">
+      <c r="B98" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E98" s="23"/>
+      <c r="E98" s="21"/>
       <c r="F98" s="6" t="s">
         <v>10</v>
       </c>
@@ -2400,13 +2428,13 @@
       <c r="B99" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C99" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D99" s="24" t="s">
+      <c r="C99" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E99" s="24"/>
+      <c r="E99" s="20"/>
       <c r="F99" s="6" t="s">
         <v>10</v>
       </c>
@@ -2420,13 +2448,13 @@
       <c r="B100" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C100" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D100" s="24" t="s">
+      <c r="C100" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E100" s="24"/>
+      <c r="E100" s="20"/>
       <c r="F100" s="6" t="s">
         <v>10</v>
       </c>
@@ -2440,13 +2468,13 @@
       <c r="B101" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C101" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D101" s="24" t="s">
+      <c r="C101" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E101" s="24"/>
+      <c r="E101" s="20"/>
       <c r="F101" s="6" t="s">
         <v>10</v>
       </c>
@@ -2460,13 +2488,13 @@
       <c r="B102" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C102" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D102" s="24" t="s">
+      <c r="C102" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E102" s="24"/>
+      <c r="E102" s="20"/>
       <c r="F102" s="6" t="s">
         <v>10</v>
       </c>
@@ -2480,13 +2508,13 @@
       <c r="B103" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C103" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D103" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E103" s="24"/>
+      <c r="C103" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E103" s="20"/>
       <c r="F103" s="6" t="s">
         <v>10</v>
       </c>
@@ -2500,13 +2528,13 @@
       <c r="B104" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C104" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D104" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E104" s="24"/>
+      <c r="C104" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E104" s="20"/>
       <c r="F104" s="6" t="s">
         <v>10</v>
       </c>
@@ -2520,13 +2548,13 @@
       <c r="B105" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C105" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D105" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E105" s="24"/>
+      <c r="C105" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E105" s="20"/>
       <c r="F105" s="6" t="s">
         <v>10</v>
       </c>
@@ -2540,13 +2568,13 @@
       <c r="B106" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C106" s="24" t="s">
+      <c r="C106" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D106" s="24" t="s">
+      <c r="D106" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E106" s="24"/>
+      <c r="E106" s="20"/>
       <c r="F106" s="6" t="s">
         <v>10</v>
       </c>
@@ -2560,13 +2588,13 @@
       <c r="B107" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C107" s="24" t="s">
+      <c r="C107" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D107" s="24" t="s">
+      <c r="D107" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E107" s="24"/>
+      <c r="E107" s="20"/>
       <c r="F107" s="6" t="s">
         <v>10</v>
       </c>
@@ -2580,13 +2608,13 @@
       <c r="B108" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C108" s="24" t="s">
+      <c r="C108" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D108" s="24" t="s">
+      <c r="D108" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E108" s="24"/>
+      <c r="E108" s="20"/>
       <c r="F108" s="6" t="s">
         <v>10</v>
       </c>
@@ -2600,13 +2628,13 @@
       <c r="B109" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C109" s="24" t="s">
+      <c r="C109" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D109" s="24" t="s">
+      <c r="D109" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E109" s="24"/>
+      <c r="E109" s="20"/>
       <c r="F109" s="6" t="s">
         <v>10</v>
       </c>
@@ -2620,13 +2648,13 @@
       <c r="B110" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C110" s="24" t="s">
+      <c r="C110" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D110" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E110" s="24"/>
+      <c r="D110" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E110" s="20"/>
       <c r="F110" s="6" t="s">
         <v>10</v>
       </c>
@@ -2640,13 +2668,13 @@
       <c r="B111" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C111" s="24" t="s">
+      <c r="C111" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D111" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E111" s="24"/>
+      <c r="D111" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E111" s="20"/>
       <c r="F111" s="6" t="s">
         <v>10</v>
       </c>
@@ -2660,13 +2688,13 @@
       <c r="B112" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C112" s="24" t="s">
+      <c r="C112" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D112" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E112" s="24"/>
+      <c r="D112" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E112" s="20"/>
       <c r="F112" s="6" t="s">
         <v>10</v>
       </c>
@@ -2680,13 +2708,13 @@
       <c r="B113" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C113" s="24" t="s">
+      <c r="C113" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D113" s="24" t="s">
+      <c r="D113" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E113" s="24"/>
+      <c r="E113" s="20"/>
       <c r="F113" s="6" t="s">
         <v>10</v>
       </c>
@@ -2700,13 +2728,13 @@
       <c r="B114" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C114" s="24" t="s">
+      <c r="C114" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D114" s="24" t="s">
+      <c r="D114" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E114" s="24"/>
+      <c r="E114" s="20"/>
       <c r="F114" s="6" t="s">
         <v>10</v>
       </c>
@@ -2720,13 +2748,13 @@
       <c r="B115" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C115" s="24" t="s">
+      <c r="C115" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D115" s="24" t="s">
+      <c r="D115" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E115" s="24"/>
+      <c r="E115" s="20"/>
       <c r="F115" s="6" t="s">
         <v>10</v>
       </c>
@@ -2740,13 +2768,13 @@
       <c r="B116" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C116" s="24" t="s">
+      <c r="C116" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D116" s="24" t="s">
+      <c r="D116" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E116" s="24"/>
+      <c r="E116" s="20"/>
       <c r="F116" s="6" t="s">
         <v>10</v>
       </c>
@@ -2760,13 +2788,13 @@
       <c r="B117" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C117" s="24" t="s">
+      <c r="C117" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D117" s="24" t="s">
+      <c r="D117" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E117" s="24"/>
+      <c r="E117" s="20"/>
       <c r="F117" s="6" t="s">
         <v>10</v>
       </c>
@@ -2780,13 +2808,13 @@
       <c r="B118" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C118" s="24" t="s">
+      <c r="C118" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D118" s="24" t="s">
+      <c r="D118" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E118" s="24"/>
+      <c r="E118" s="20"/>
       <c r="F118" s="6" t="s">
         <v>10</v>
       </c>
@@ -2800,13 +2828,13 @@
       <c r="B119" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C119" s="24" t="s">
+      <c r="C119" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D119" s="24" t="s">
+      <c r="D119" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E119" s="24"/>
+      <c r="E119" s="20"/>
       <c r="F119" s="6" t="s">
         <v>10</v>
       </c>
@@ -2820,13 +2848,13 @@
       <c r="B120" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C120" s="24" t="s">
+      <c r="C120" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D120" s="24" t="s">
+      <c r="D120" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E120" s="24"/>
+      <c r="E120" s="20"/>
       <c r="F120" s="6" t="s">
         <v>10</v>
       </c>
@@ -2840,13 +2868,13 @@
       <c r="B121" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C121" s="24" t="s">
+      <c r="C121" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D121" s="24" t="s">
+      <c r="D121" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E121" s="24"/>
+      <c r="E121" s="20"/>
       <c r="F121" s="6" t="s">
         <v>10</v>
       </c>
@@ -2860,13 +2888,13 @@
       <c r="B122" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C122" s="24" t="s">
+      <c r="C122" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D122" s="24" t="s">
+      <c r="D122" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E122" s="24"/>
+      <c r="E122" s="20"/>
       <c r="F122" s="6" t="s">
         <v>10</v>
       </c>
@@ -2880,13 +2908,13 @@
       <c r="B123" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C123" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D123" s="24" t="s">
+      <c r="C123" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D123" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E123" s="24"/>
+      <c r="E123" s="20"/>
       <c r="F123" s="6" t="s">
         <v>10</v>
       </c>
@@ -2900,13 +2928,13 @@
       <c r="B124" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C124" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D124" s="24" t="s">
+      <c r="C124" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D124" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E124" s="24"/>
+      <c r="E124" s="20"/>
       <c r="F124" s="6" t="s">
         <v>10</v>
       </c>
@@ -2920,13 +2948,13 @@
       <c r="B125" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C125" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D125" s="24" t="s">
+      <c r="C125" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D125" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E125" s="24"/>
+      <c r="E125" s="20"/>
       <c r="F125" s="6" t="s">
         <v>10</v>
       </c>
@@ -2940,13 +2968,13 @@
       <c r="B126" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C126" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D126" s="24" t="s">
+      <c r="C126" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D126" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E126" s="24"/>
+      <c r="E126" s="20"/>
       <c r="F126" s="6" t="s">
         <v>10</v>
       </c>
@@ -2960,13 +2988,13 @@
       <c r="B127" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C127" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D127" s="24" t="s">
+      <c r="C127" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D127" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E127" s="24"/>
+      <c r="E127" s="20"/>
       <c r="F127" s="6" t="s">
         <v>10</v>
       </c>
@@ -2980,13 +3008,13 @@
       <c r="B128" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C128" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D128" s="24" t="s">
+      <c r="C128" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D128" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E128" s="24"/>
+      <c r="E128" s="20"/>
       <c r="F128" s="6" t="s">
         <v>10</v>
       </c>
@@ -3000,13 +3028,13 @@
       <c r="B129" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C129" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D129" s="24" t="s">
+      <c r="C129" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D129" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E129" s="24"/>
+      <c r="E129" s="20"/>
       <c r="F129" s="6" t="s">
         <v>10</v>
       </c>
@@ -3020,13 +3048,13 @@
       <c r="B130" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C130" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D130" s="24" t="s">
+      <c r="C130" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D130" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E130" s="24"/>
+      <c r="E130" s="20"/>
       <c r="F130" s="6" t="s">
         <v>10</v>
       </c>
@@ -3040,13 +3068,13 @@
       <c r="B131" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C131" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D131" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E131" s="24"/>
+      <c r="C131" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D131" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E131" s="20"/>
       <c r="F131" s="6" t="s">
         <v>10</v>
       </c>
@@ -3060,13 +3088,13 @@
       <c r="B132" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C132" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D132" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E132" s="24"/>
+      <c r="C132" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D132" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E132" s="20"/>
       <c r="F132" s="6" t="s">
         <v>10</v>
       </c>
@@ -3080,13 +3108,13 @@
       <c r="B133" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C133" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D133" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E133" s="24"/>
+      <c r="C133" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D133" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E133" s="20"/>
       <c r="F133" s="6" t="s">
         <v>10</v>
       </c>
@@ -3100,13 +3128,13 @@
       <c r="B134" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C134" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D134" s="24" t="s">
+      <c r="C134" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D134" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E134" s="24"/>
+      <c r="E134" s="20"/>
       <c r="F134" s="6" t="s">
         <v>10</v>
       </c>
@@ -3120,13 +3148,13 @@
       <c r="B135" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C135" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D135" s="24" t="s">
+      <c r="C135" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D135" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E135" s="24"/>
+      <c r="E135" s="20"/>
       <c r="F135" s="6" t="s">
         <v>10</v>
       </c>
@@ -3140,13 +3168,13 @@
       <c r="B136" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C136" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D136" s="24" t="s">
+      <c r="C136" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D136" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E136" s="24"/>
+      <c r="E136" s="20"/>
       <c r="F136" s="6" t="s">
         <v>10</v>
       </c>
@@ -3160,13 +3188,13 @@
       <c r="B137" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C137" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D137" s="24" t="s">
+      <c r="C137" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D137" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E137" s="24"/>
+      <c r="E137" s="20"/>
       <c r="F137" s="6" t="s">
         <v>10</v>
       </c>
@@ -3180,13 +3208,13 @@
       <c r="B138" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C138" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D138" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E138" s="24"/>
+      <c r="C138" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D138" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E138" s="20"/>
       <c r="F138" s="6" t="s">
         <v>10</v>
       </c>
@@ -3200,13 +3228,13 @@
       <c r="B139" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C139" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D139" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E139" s="24"/>
+      <c r="C139" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D139" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E139" s="20"/>
       <c r="F139" s="6" t="s">
         <v>10</v>
       </c>
@@ -3220,13 +3248,13 @@
       <c r="B140" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C140" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D140" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E140" s="24"/>
+      <c r="C140" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D140" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E140" s="20"/>
       <c r="F140" s="6" t="s">
         <v>10</v>
       </c>
@@ -3240,13 +3268,13 @@
       <c r="B141" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C141" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D141" s="24" t="s">
+      <c r="C141" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D141" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E141" s="24"/>
+      <c r="E141" s="20"/>
       <c r="F141" s="6" t="s">
         <v>10</v>
       </c>
@@ -3260,13 +3288,13 @@
       <c r="B142" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C142" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D142" s="24" t="s">
+      <c r="C142" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D142" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E142" s="24"/>
+      <c r="E142" s="20"/>
       <c r="F142" s="6" t="s">
         <v>10</v>
       </c>
@@ -3280,13 +3308,13 @@
       <c r="B143" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C143" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D143" s="24" t="s">
+      <c r="C143" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D143" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E143" s="24"/>
+      <c r="E143" s="20"/>
       <c r="F143" s="6" t="s">
         <v>10</v>
       </c>
@@ -3300,13 +3328,13 @@
       <c r="B144" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C144" s="24" t="s">
+      <c r="C144" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D144" s="24" t="s">
+      <c r="D144" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E144" s="24"/>
+      <c r="E144" s="20"/>
       <c r="F144" s="6" t="s">
         <v>10</v>
       </c>
@@ -3320,13 +3348,13 @@
       <c r="B145" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C145" s="24" t="s">
+      <c r="C145" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D145" s="24" t="s">
+      <c r="D145" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E145" s="24"/>
+      <c r="E145" s="20"/>
       <c r="F145" s="6" t="s">
         <v>10</v>
       </c>
@@ -3340,13 +3368,13 @@
       <c r="B146" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C146" s="24" t="s">
+      <c r="C146" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D146" s="24" t="s">
+      <c r="D146" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E146" s="24"/>
+      <c r="E146" s="20"/>
       <c r="F146" s="6" t="s">
         <v>10</v>
       </c>
@@ -3360,13 +3388,13 @@
       <c r="B147" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C147" s="24" t="s">
+      <c r="C147" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D147" s="24" t="s">
+      <c r="D147" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E147" s="24"/>
+      <c r="E147" s="20"/>
       <c r="F147" s="6" t="s">
         <v>10</v>
       </c>
@@ -3380,13 +3408,13 @@
       <c r="B148" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C148" s="24" t="s">
+      <c r="C148" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D148" s="24" t="s">
+      <c r="D148" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E148" s="24"/>
+      <c r="E148" s="20"/>
       <c r="F148" s="6" t="s">
         <v>10</v>
       </c>
@@ -3400,13 +3428,13 @@
       <c r="B149" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C149" s="24" t="s">
+      <c r="C149" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D149" s="24" t="s">
+      <c r="D149" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E149" s="24"/>
+      <c r="E149" s="20"/>
       <c r="F149" s="6" t="s">
         <v>10</v>
       </c>
@@ -3420,13 +3448,13 @@
       <c r="B150" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C150" s="24" t="s">
+      <c r="C150" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D150" s="24" t="s">
+      <c r="D150" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E150" s="24"/>
+      <c r="E150" s="20"/>
       <c r="F150" s="6" t="s">
         <v>10</v>
       </c>
@@ -3440,13 +3468,13 @@
       <c r="B151" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C151" s="24" t="s">
+      <c r="C151" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D151" s="24" t="s">
+      <c r="D151" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E151" s="24"/>
+      <c r="E151" s="20"/>
       <c r="F151" s="6" t="s">
         <v>10</v>
       </c>
@@ -3460,13 +3488,13 @@
       <c r="B152" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C152" s="24" t="s">
+      <c r="C152" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D152" s="24" t="s">
+      <c r="D152" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E152" s="24"/>
+      <c r="E152" s="20"/>
       <c r="F152" s="6" t="s">
         <v>10</v>
       </c>
@@ -3480,13 +3508,13 @@
       <c r="B153" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C153" s="24" t="s">
+      <c r="C153" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D153" s="24" t="s">
+      <c r="D153" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E153" s="24"/>
+      <c r="E153" s="20"/>
       <c r="F153" s="6" t="s">
         <v>10</v>
       </c>
@@ -3500,13 +3528,13 @@
       <c r="B154" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C154" s="24" t="s">
+      <c r="C154" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D154" s="24" t="s">
+      <c r="D154" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E154" s="24"/>
+      <c r="E154" s="20"/>
       <c r="F154" s="6" t="s">
         <v>10</v>
       </c>
@@ -3520,13 +3548,13 @@
       <c r="B155" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C155" s="24" t="s">
+      <c r="C155" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D155" s="24" t="s">
+      <c r="D155" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E155" s="24"/>
+      <c r="E155" s="20"/>
       <c r="F155" s="6" t="s">
         <v>10</v>
       </c>
@@ -3540,13 +3568,13 @@
       <c r="B156" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C156" s="24" t="s">
+      <c r="C156" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D156" s="24" t="s">
+      <c r="D156" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E156" s="24"/>
+      <c r="E156" s="20"/>
       <c r="F156" s="6" t="s">
         <v>10</v>
       </c>
@@ -3560,13 +3588,13 @@
       <c r="B157" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C157" s="24" t="s">
+      <c r="C157" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D157" s="24" t="s">
+      <c r="D157" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E157" s="24"/>
+      <c r="E157" s="20"/>
       <c r="F157" s="6" t="s">
         <v>10</v>
       </c>
@@ -3580,13 +3608,13 @@
       <c r="B158" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C158" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D158" s="24" t="s">
+      <c r="C158" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D158" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E158" s="24"/>
+      <c r="E158" s="20"/>
       <c r="F158" s="6" t="s">
         <v>10</v>
       </c>
@@ -3600,13 +3628,13 @@
       <c r="B159" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C159" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D159" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E159" s="24"/>
+      <c r="C159" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D159" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E159" s="20"/>
       <c r="F159" s="6" t="s">
         <v>10</v>
       </c>
@@ -3620,13 +3648,13 @@
       <c r="B160" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C160" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D160" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E160" s="24"/>
+      <c r="C160" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D160" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E160" s="20"/>
       <c r="F160" s="6" t="s">
         <v>10</v>
       </c>
@@ -3640,13 +3668,13 @@
       <c r="B161" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C161" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D161" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E161" s="24"/>
+      <c r="C161" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D161" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E161" s="20"/>
       <c r="F161" s="6" t="s">
         <v>10</v>
       </c>
@@ -3660,13 +3688,13 @@
       <c r="B162" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C162" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D162" s="24" t="s">
+      <c r="C162" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D162" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E162" s="24"/>
+      <c r="E162" s="20"/>
       <c r="F162" s="6" t="s">
         <v>10</v>
       </c>
@@ -3680,13 +3708,13 @@
       <c r="B163" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C163" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D163" s="24" t="s">
+      <c r="C163" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D163" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E163" s="24"/>
+      <c r="E163" s="20"/>
       <c r="F163" s="6" t="s">
         <v>10</v>
       </c>
@@ -3700,13 +3728,13 @@
       <c r="B164" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C164" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D164" s="24" t="s">
+      <c r="C164" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D164" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E164" s="24"/>
+      <c r="E164" s="20"/>
       <c r="F164" s="6" t="s">
         <v>10</v>
       </c>
@@ -3720,13 +3748,13 @@
       <c r="B165" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C165" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D165" s="24" t="s">
+      <c r="C165" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D165" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E165" s="24"/>
+      <c r="E165" s="20"/>
       <c r="F165" s="6" t="s">
         <v>10</v>
       </c>
@@ -3740,13 +3768,13 @@
       <c r="B166" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C166" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D166" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E166" s="24"/>
+      <c r="C166" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D166" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E166" s="20"/>
       <c r="F166" s="6" t="s">
         <v>10</v>
       </c>
@@ -3760,13 +3788,13 @@
       <c r="B167" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C167" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D167" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E167" s="24"/>
+      <c r="C167" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D167" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E167" s="20"/>
       <c r="F167" s="6" t="s">
         <v>10</v>
       </c>
@@ -3780,13 +3808,13 @@
       <c r="B168" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C168" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D168" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E168" s="24"/>
+      <c r="C168" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D168" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E168" s="20"/>
       <c r="F168" s="6" t="s">
         <v>10</v>
       </c>
@@ -3800,13 +3828,13 @@
       <c r="B169" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C169" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D169" s="24" t="s">
+      <c r="C169" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D169" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E169" s="24"/>
+      <c r="E169" s="20"/>
       <c r="F169" s="6" t="s">
         <v>10</v>
       </c>
@@ -3820,13 +3848,13 @@
       <c r="B170" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C170" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D170" s="24" t="s">
+      <c r="C170" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D170" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E170" s="24"/>
+      <c r="E170" s="20"/>
       <c r="F170" s="6" t="s">
         <v>10</v>
       </c>
@@ -3840,13 +3868,13 @@
       <c r="B171" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C171" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D171" s="24" t="s">
+      <c r="C171" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D171" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E171" s="24"/>
+      <c r="E171" s="20"/>
       <c r="F171" s="6" t="s">
         <v>10</v>
       </c>
@@ -3860,13 +3888,13 @@
       <c r="B172" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C172" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D172" s="24" t="s">
+      <c r="C172" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D172" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E172" s="24"/>
+      <c r="E172" s="20"/>
       <c r="F172" s="6" t="s">
         <v>10</v>
       </c>
@@ -3877,16 +3905,16 @@
         <f aca="false">A172+1</f>
         <v>44823</v>
       </c>
-      <c r="B173" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C173" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D173" s="25" t="s">
+      <c r="B173" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C173" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D173" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E173" s="25"/>
+      <c r="E173" s="22"/>
       <c r="F173" s="6" t="s">
         <v>10</v>
       </c>
@@ -3897,16 +3925,16 @@
         <f aca="false">A173+1</f>
         <v>44824</v>
       </c>
-      <c r="B174" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C174" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D174" s="25" t="s">
+      <c r="B174" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C174" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D174" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E174" s="25"/>
+      <c r="E174" s="22"/>
       <c r="F174" s="6" t="s">
         <v>10</v>
       </c>
@@ -3917,16 +3945,16 @@
         <f aca="false">A174+1</f>
         <v>44825</v>
       </c>
-      <c r="B175" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C175" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D175" s="25" t="s">
+      <c r="B175" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C175" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D175" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E175" s="25"/>
+      <c r="E175" s="22"/>
       <c r="F175" s="6" t="s">
         <v>10</v>
       </c>
@@ -3937,16 +3965,16 @@
         <f aca="false">A175+1</f>
         <v>44826</v>
       </c>
-      <c r="B176" s="25" t="s">
+      <c r="B176" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C176" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C176" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D176" s="25" t="s">
+      <c r="D176" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E176" s="25"/>
+      <c r="E176" s="22"/>
       <c r="F176" s="6" t="s">
         <v>10</v>
       </c>
@@ -3957,16 +3985,16 @@
         <f aca="false">A176+1</f>
         <v>44827</v>
       </c>
-      <c r="B177" s="25" t="s">
+      <c r="B177" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C177" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C177" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D177" s="25" t="s">
+      <c r="D177" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E177" s="25"/>
+      <c r="E177" s="22"/>
       <c r="F177" s="6" t="s">
         <v>10</v>
       </c>
@@ -3977,16 +4005,16 @@
         <f aca="false">A177+1</f>
         <v>44828</v>
       </c>
-      <c r="B178" s="25" t="s">
+      <c r="B178" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C178" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C178" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D178" s="25" t="s">
+      <c r="D178" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E178" s="25"/>
+      <c r="E178" s="22"/>
       <c r="F178" s="6" t="s">
         <v>10</v>
       </c>
@@ -3997,16 +4025,16 @@
         <f aca="false">A178+1</f>
         <v>44829</v>
       </c>
-      <c r="B179" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C179" s="25" t="s">
+      <c r="B179" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C179" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D179" s="25" t="s">
+      <c r="D179" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E179" s="25"/>
+      <c r="E179" s="22"/>
       <c r="F179" s="6" t="s">
         <v>10</v>
       </c>
@@ -4017,16 +4045,16 @@
         <f aca="false">A179+1</f>
         <v>44830</v>
       </c>
-      <c r="B180" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C180" s="25" t="s">
+      <c r="B180" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C180" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D180" s="25" t="s">
+      <c r="D180" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E180" s="25"/>
+      <c r="E180" s="22"/>
       <c r="F180" s="6" t="s">
         <v>10</v>
       </c>
@@ -4037,16 +4065,16 @@
         <f aca="false">A180+1</f>
         <v>44831</v>
       </c>
-      <c r="B181" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C181" s="25" t="s">
+      <c r="B181" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C181" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D181" s="25" t="s">
+      <c r="D181" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E181" s="25"/>
+      <c r="E181" s="22"/>
       <c r="F181" s="6" t="s">
         <v>10</v>
       </c>
@@ -4057,16 +4085,16 @@
         <f aca="false">A181+1</f>
         <v>44832</v>
       </c>
-      <c r="B182" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C182" s="25" t="s">
+      <c r="B182" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C182" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D182" s="25" t="s">
+      <c r="D182" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E182" s="25"/>
+      <c r="E182" s="22"/>
       <c r="F182" s="6" t="s">
         <v>10</v>
       </c>
@@ -4077,16 +4105,16 @@
         <f aca="false">A182+1</f>
         <v>44833</v>
       </c>
-      <c r="B183" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C183" s="25" t="s">
+      <c r="B183" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C183" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D183" s="25" t="s">
+      <c r="D183" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E183" s="25"/>
+      <c r="E183" s="22"/>
       <c r="F183" s="6" t="s">
         <v>10</v>
       </c>
@@ -4097,16 +4125,16 @@
         <f aca="false">A183+1</f>
         <v>44834</v>
       </c>
-      <c r="B184" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C184" s="25" t="s">
+      <c r="B184" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C184" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D184" s="25" t="s">
+      <c r="D184" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E184" s="25"/>
+      <c r="E184" s="22"/>
       <c r="F184" s="6" t="s">
         <v>10</v>
       </c>

--- a/scripts/ESO-2.2m/schedules/P109/schedule-ESO-2.2m-P109.xlsx
+++ b/scripts/ESO-2.2m/schedules/P109/schedule-ESO-2.2m-P109.xlsx
@@ -127,13 +127,19 @@
     <t xml:space="preserve">Régis, Paul</t>
   </si>
   <si>
+    <t xml:space="preserve">Zakhozhay/Hobson</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sam, Régis</t>
   </si>
   <si>
     <t xml:space="preserve">Maren, Régis</t>
   </si>
   <si>
-    <t xml:space="preserve">Chini</t>
+    <t xml:space="preserve">Moyano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cure</t>
   </si>
   <si>
     <t xml:space="preserve">Hobson, Weather</t>
@@ -142,16 +148,10 @@
     <t xml:space="preserve">Angela, Régis</t>
   </si>
   <si>
-    <t xml:space="preserve">Zakhozhay, Hobson</t>
+    <t xml:space="preserve">P110</t>
   </si>
   <si>
     <t xml:space="preserve">Chile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moyano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cure</t>
   </si>
 </sst>
 </file>
@@ -234,7 +234,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,12 +250,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C7DC"/>
-        <bgColor rgb="FF99CCFF"/>
+        <bgColor rgb="FFD5CDC4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD5CDC4"/>
+        <bgColor rgb="FFB4C7DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFD095"/>
         <bgColor rgb="FFB4C7DC"/>
       </patternFill>
     </fill>
@@ -294,7 +300,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -339,27 +345,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -379,11 +373,39 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -434,7 +456,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFAFD095"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
@@ -467,12 +489,12 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C66" activeCellId="0" sqref="C66"/>
+      <selection pane="bottomLeft" activeCell="D158" activeCellId="0" sqref="D158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.18359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.78"/>
@@ -1941,140 +1963,140 @@
       <c r="G74" s="7"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="17" t="n">
+      <c r="A75" s="14" t="n">
         <f aca="false">A74+1</f>
         <v>44725</v>
       </c>
-      <c r="B75" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C75" s="19" t="s">
+      <c r="B75" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D75" s="19" t="s">
+      <c r="D75" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E75" s="19"/>
+      <c r="E75" s="16"/>
       <c r="F75" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="7"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="17" t="n">
+      <c r="A76" s="14" t="n">
         <f aca="false">A75+1</f>
         <v>44726</v>
       </c>
-      <c r="B76" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C76" s="19" t="s">
+      <c r="B76" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D76" s="19" t="s">
+      <c r="D76" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E76" s="19"/>
+      <c r="E76" s="16"/>
       <c r="F76" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="7"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="17" t="n">
+      <c r="A77" s="14" t="n">
         <f aca="false">A76+1</f>
         <v>44727</v>
       </c>
-      <c r="B77" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C77" s="19" t="s">
+      <c r="B77" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D77" s="19" t="s">
+      <c r="D77" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E77" s="19"/>
+      <c r="E77" s="16"/>
       <c r="F77" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="7"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="17" t="n">
+      <c r="A78" s="14" t="n">
         <f aca="false">A77+1</f>
         <v>44728</v>
       </c>
-      <c r="B78" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C78" s="19" t="s">
+      <c r="B78" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D78" s="19" t="s">
+      <c r="D78" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E78" s="19"/>
+      <c r="E78" s="16"/>
       <c r="F78" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="7"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="17" t="n">
+      <c r="A79" s="14" t="n">
         <f aca="false">A78+1</f>
         <v>44729</v>
       </c>
-      <c r="B79" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C79" s="19" t="s">
+      <c r="B79" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D79" s="19" t="s">
+      <c r="D79" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E79" s="19"/>
+      <c r="E79" s="16"/>
       <c r="F79" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="7"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="17" t="n">
+      <c r="A80" s="14" t="n">
         <f aca="false">A79+1</f>
         <v>44730</v>
       </c>
-      <c r="B80" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C80" s="19" t="s">
+      <c r="B80" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D80" s="19" t="s">
+      <c r="D80" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E80" s="19"/>
+      <c r="E80" s="16"/>
       <c r="F80" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="7"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="17" t="n">
+      <c r="A81" s="14" t="n">
         <f aca="false">A80+1</f>
         <v>44731</v>
       </c>
-      <c r="B81" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C81" s="19" t="s">
+      <c r="B81" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D81" s="19" t="s">
+      <c r="D81" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E81" s="19"/>
+      <c r="E81" s="16"/>
       <c r="F81" s="6" t="s">
         <v>10</v>
       </c>
@@ -2085,10 +2107,10 @@
         <f aca="false">A81+1</f>
         <v>44732</v>
       </c>
-      <c r="B82" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C82" s="20" t="s">
+      <c r="B82" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D82" s="10" t="s">
@@ -2105,10 +2127,10 @@
         <f aca="false">A82+1</f>
         <v>44733</v>
       </c>
-      <c r="B83" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C83" s="19" t="s">
+      <c r="B83" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D83" s="10" t="s">
@@ -2125,10 +2147,10 @@
         <f aca="false">A83+1</f>
         <v>44734</v>
       </c>
-      <c r="B84" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C84" s="19" t="s">
+      <c r="B84" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" s="16" t="s">
         <v>31</v>
       </c>
       <c r="D84" s="10" t="s">
@@ -2145,10 +2167,10 @@
         <f aca="false">A84+1</f>
         <v>44735</v>
       </c>
-      <c r="B85" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C85" s="19" t="s">
+      <c r="B85" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" s="16" t="s">
         <v>31</v>
       </c>
       <c r="D85" s="10" t="s">
@@ -2165,10 +2187,10 @@
         <f aca="false">A85+1</f>
         <v>44736</v>
       </c>
-      <c r="B86" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C86" s="19" t="s">
+      <c r="B86" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" s="16" t="s">
         <v>31</v>
       </c>
       <c r="D86" s="10" t="s">
@@ -2189,12 +2211,12 @@
         <v>13</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D87" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D87" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E87" s="21"/>
+      <c r="E87" s="10"/>
       <c r="F87" s="6" t="s">
         <v>10</v>
       </c>
@@ -2209,12 +2231,12 @@
         <v>13</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D88" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D88" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E88" s="21"/>
+      <c r="E88" s="10"/>
       <c r="F88" s="6" t="s">
         <v>10</v>
       </c>
@@ -2229,12 +2251,12 @@
         <v>13</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D89" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D89" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E89" s="21"/>
+      <c r="E89" s="10"/>
       <c r="F89" s="6" t="s">
         <v>10</v>
       </c>
@@ -2249,12 +2271,12 @@
         <v>13</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D90" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D90" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E90" s="21"/>
+      <c r="E90" s="10"/>
       <c r="F90" s="6" t="s">
         <v>10</v>
       </c>
@@ -2269,12 +2291,12 @@
         <v>13</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D91" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D91" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E91" s="21"/>
+      <c r="E91" s="10"/>
       <c r="F91" s="6" t="s">
         <v>10</v>
       </c>
@@ -2289,12 +2311,12 @@
         <v>13</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D92" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D92" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E92" s="21"/>
+      <c r="E92" s="10"/>
       <c r="F92" s="6" t="s">
         <v>10</v>
       </c>
@@ -2309,12 +2331,12 @@
         <v>13</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D93" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D93" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E93" s="21"/>
+      <c r="E93" s="10"/>
       <c r="F93" s="6" t="s">
         <v>10</v>
       </c>
@@ -2329,12 +2351,12 @@
         <v>13</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D94" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D94" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E94" s="21"/>
+      <c r="E94" s="10"/>
       <c r="F94" s="6" t="s">
         <v>10</v>
       </c>
@@ -2349,12 +2371,12 @@
         <v>13</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D95" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D95" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E95" s="21"/>
+      <c r="E95" s="10"/>
       <c r="F95" s="6" t="s">
         <v>10</v>
       </c>
@@ -2369,12 +2391,12 @@
         <v>13</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D96" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D96" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E96" s="21"/>
+      <c r="E96" s="10"/>
       <c r="F96" s="6" t="s">
         <v>10</v>
       </c>
@@ -2389,12 +2411,12 @@
         <v>13</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D97" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D97" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E97" s="21"/>
+      <c r="E97" s="10"/>
       <c r="F97" s="6" t="s">
         <v>10</v>
       </c>
@@ -2409,12 +2431,12 @@
         <v>13</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D98" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D98" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E98" s="21"/>
+      <c r="E98" s="10"/>
       <c r="F98" s="6" t="s">
         <v>10</v>
       </c>
@@ -2429,12 +2451,12 @@
         <v>13</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D99" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D99" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E99" s="20"/>
+      <c r="E99" s="17"/>
       <c r="F99" s="6" t="s">
         <v>10</v>
       </c>
@@ -2449,12 +2471,12 @@
         <v>13</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D100" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D100" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E100" s="20"/>
+      <c r="E100" s="17"/>
       <c r="F100" s="6" t="s">
         <v>10</v>
       </c>
@@ -2469,12 +2491,12 @@
         <v>13</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D101" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D101" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E101" s="20"/>
+      <c r="E101" s="17"/>
       <c r="F101" s="6" t="s">
         <v>10</v>
       </c>
@@ -2489,12 +2511,12 @@
         <v>13</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D102" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D102" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E102" s="20"/>
+      <c r="E102" s="17"/>
       <c r="F102" s="6" t="s">
         <v>10</v>
       </c>
@@ -2509,12 +2531,12 @@
         <v>13</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D103" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E103" s="20"/>
+      <c r="D103" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E103" s="17"/>
       <c r="F103" s="6" t="s">
         <v>10</v>
       </c>
@@ -2529,12 +2551,12 @@
         <v>13</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D104" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E104" s="20"/>
+      <c r="D104" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E104" s="17"/>
       <c r="F104" s="6" t="s">
         <v>10</v>
       </c>
@@ -2549,12 +2571,12 @@
         <v>13</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D105" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E105" s="20"/>
+      <c r="D105" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E105" s="17"/>
       <c r="F105" s="6" t="s">
         <v>10</v>
       </c>
@@ -2568,13 +2590,13 @@
       <c r="B106" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C106" s="20" t="s">
+      <c r="C106" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D106" s="20" t="s">
+      <c r="D106" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E106" s="20"/>
+      <c r="E106" s="17"/>
       <c r="F106" s="6" t="s">
         <v>10</v>
       </c>
@@ -2588,13 +2610,13 @@
       <c r="B107" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C107" s="20" t="s">
+      <c r="C107" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D107" s="20" t="s">
+      <c r="D107" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E107" s="20"/>
+      <c r="E107" s="17"/>
       <c r="F107" s="6" t="s">
         <v>10</v>
       </c>
@@ -2608,13 +2630,13 @@
       <c r="B108" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C108" s="20" t="s">
+      <c r="C108" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D108" s="20" t="s">
+      <c r="D108" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E108" s="20"/>
+      <c r="E108" s="17"/>
       <c r="F108" s="6" t="s">
         <v>10</v>
       </c>
@@ -2628,13 +2650,13 @@
       <c r="B109" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C109" s="20" t="s">
+      <c r="C109" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D109" s="20" t="s">
+      <c r="D109" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E109" s="20"/>
+      <c r="E109" s="17"/>
       <c r="F109" s="6" t="s">
         <v>10</v>
       </c>
@@ -2648,13 +2670,13 @@
       <c r="B110" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C110" s="20" t="s">
+      <c r="C110" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D110" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E110" s="20"/>
+      <c r="D110" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E110" s="17"/>
       <c r="F110" s="6" t="s">
         <v>10</v>
       </c>
@@ -2668,13 +2690,13 @@
       <c r="B111" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C111" s="20" t="s">
+      <c r="C111" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D111" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E111" s="20"/>
+      <c r="D111" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E111" s="17"/>
       <c r="F111" s="6" t="s">
         <v>10</v>
       </c>
@@ -2688,13 +2710,13 @@
       <c r="B112" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C112" s="20" t="s">
+      <c r="C112" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D112" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E112" s="20"/>
+      <c r="D112" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E112" s="17"/>
       <c r="F112" s="6" t="s">
         <v>10</v>
       </c>
@@ -2708,13 +2730,13 @@
       <c r="B113" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C113" s="20" t="s">
+      <c r="C113" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D113" s="20" t="s">
+      <c r="D113" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E113" s="20"/>
+      <c r="E113" s="17"/>
       <c r="F113" s="6" t="s">
         <v>10</v>
       </c>
@@ -2728,13 +2750,13 @@
       <c r="B114" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C114" s="20" t="s">
+      <c r="C114" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D114" s="20" t="s">
+      <c r="D114" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E114" s="20"/>
+      <c r="E114" s="17"/>
       <c r="F114" s="6" t="s">
         <v>10</v>
       </c>
@@ -2748,13 +2770,13 @@
       <c r="B115" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C115" s="20" t="s">
+      <c r="C115" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D115" s="20" t="s">
+      <c r="D115" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E115" s="20"/>
+      <c r="E115" s="17"/>
       <c r="F115" s="6" t="s">
         <v>10</v>
       </c>
@@ -2768,13 +2790,13 @@
       <c r="B116" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C116" s="20" t="s">
+      <c r="C116" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D116" s="20" t="s">
+      <c r="D116" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E116" s="20"/>
+      <c r="E116" s="17"/>
       <c r="F116" s="6" t="s">
         <v>10</v>
       </c>
@@ -2788,13 +2810,13 @@
       <c r="B117" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C117" s="20" t="s">
+      <c r="C117" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D117" s="20" t="s">
+      <c r="D117" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E117" s="20"/>
+      <c r="E117" s="17"/>
       <c r="F117" s="6" t="s">
         <v>10</v>
       </c>
@@ -2808,253 +2830,253 @@
       <c r="B118" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C118" s="20" t="s">
+      <c r="C118" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D118" s="20" t="s">
+      <c r="D118" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E118" s="20"/>
+      <c r="E118" s="17"/>
       <c r="F118" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="7"/>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="8" t="n">
+      <c r="A119" s="18" t="n">
         <f aca="false">A118+1</f>
         <v>44769</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B119" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C119" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D119" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D119" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E119" s="20"/>
+      <c r="E119" s="21"/>
       <c r="F119" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="7"/>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="8" t="n">
+      <c r="A120" s="18" t="n">
         <f aca="false">A119+1</f>
         <v>44770</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="B120" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C120" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D120" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D120" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E120" s="20"/>
+      <c r="E120" s="21"/>
       <c r="F120" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="7"/>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="8" t="n">
+      <c r="A121" s="18" t="n">
         <f aca="false">A120+1</f>
         <v>44771</v>
       </c>
-      <c r="B121" s="9" t="s">
+      <c r="B121" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C121" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D121" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D121" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E121" s="20"/>
+      <c r="E121" s="21"/>
       <c r="F121" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="7"/>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="8" t="n">
+      <c r="A122" s="18" t="n">
         <f aca="false">A121+1</f>
         <v>44772</v>
       </c>
-      <c r="B122" s="9" t="s">
+      <c r="B122" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C122" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D122" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D122" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E122" s="20"/>
+      <c r="E122" s="21"/>
       <c r="F122" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="7"/>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="8" t="n">
+      <c r="A123" s="18" t="n">
         <f aca="false">A122+1</f>
         <v>44773</v>
       </c>
-      <c r="B123" s="9" t="s">
+      <c r="B123" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C123" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D123" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D123" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E123" s="20"/>
+      <c r="E123" s="21"/>
       <c r="F123" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="7"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="8" t="n">
+      <c r="A124" s="18" t="n">
         <f aca="false">A123+1</f>
         <v>44774</v>
       </c>
-      <c r="B124" s="9" t="s">
+      <c r="B124" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C124" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D124" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D124" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E124" s="20"/>
+      <c r="E124" s="21"/>
       <c r="F124" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="7"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="8" t="n">
+      <c r="A125" s="18" t="n">
         <f aca="false">A124+1</f>
         <v>44775</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="B125" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C125" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D125" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E125" s="20"/>
+      <c r="E125" s="21"/>
       <c r="F125" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="7"/>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="8" t="n">
+      <c r="A126" s="18" t="n">
         <f aca="false">A125+1</f>
         <v>44776</v>
       </c>
-      <c r="B126" s="9" t="s">
+      <c r="B126" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C126" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D126" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E126" s="20"/>
+      <c r="E126" s="21"/>
       <c r="F126" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="7"/>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="8" t="n">
+      <c r="A127" s="18" t="n">
         <f aca="false">A126+1</f>
         <v>44777</v>
       </c>
-      <c r="B127" s="9" t="s">
+      <c r="B127" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C127" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D127" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D127" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E127" s="20"/>
+      <c r="E127" s="21"/>
       <c r="F127" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="7"/>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="8" t="n">
+      <c r="A128" s="18" t="n">
         <f aca="false">A127+1</f>
         <v>44778</v>
       </c>
-      <c r="B128" s="9" t="s">
+      <c r="B128" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D128" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E128" s="20"/>
+      <c r="E128" s="21"/>
       <c r="F128" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="7"/>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="8" t="n">
+      <c r="A129" s="18" t="n">
         <f aca="false">A128+1</f>
         <v>44779</v>
       </c>
-      <c r="B129" s="9" t="s">
+      <c r="B129" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C129" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D129" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E129" s="20"/>
+      <c r="E129" s="21"/>
       <c r="F129" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="7"/>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="8" t="n">
+      <c r="A130" s="18" t="n">
         <f aca="false">A129+1</f>
         <v>44780</v>
       </c>
-      <c r="B130" s="9" t="s">
+      <c r="B130" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C130" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D130" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E130" s="20"/>
+      <c r="E130" s="21"/>
       <c r="F130" s="6" t="s">
         <v>10</v>
       </c>
@@ -3068,13 +3090,13 @@
       <c r="B131" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C131" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D131" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E131" s="20"/>
+      <c r="C131" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D131" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E131" s="17"/>
       <c r="F131" s="6" t="s">
         <v>10</v>
       </c>
@@ -3088,13 +3110,13 @@
       <c r="B132" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C132" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D132" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E132" s="20"/>
+      <c r="C132" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D132" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E132" s="17"/>
       <c r="F132" s="6" t="s">
         <v>10</v>
       </c>
@@ -3108,13 +3130,13 @@
       <c r="B133" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C133" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D133" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E133" s="20"/>
+      <c r="C133" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D133" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E133" s="17"/>
       <c r="F133" s="6" t="s">
         <v>10</v>
       </c>
@@ -3128,13 +3150,13 @@
       <c r="B134" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C134" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D134" s="20" t="s">
+      <c r="C134" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D134" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E134" s="20"/>
+      <c r="E134" s="17"/>
       <c r="F134" s="6" t="s">
         <v>10</v>
       </c>
@@ -3148,13 +3170,13 @@
       <c r="B135" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C135" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D135" s="20" t="s">
+      <c r="C135" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D135" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E135" s="20"/>
+      <c r="E135" s="17"/>
       <c r="F135" s="6" t="s">
         <v>10</v>
       </c>
@@ -3168,13 +3190,13 @@
       <c r="B136" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C136" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D136" s="20" t="s">
+      <c r="C136" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D136" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E136" s="20"/>
+      <c r="E136" s="17"/>
       <c r="F136" s="6" t="s">
         <v>10</v>
       </c>
@@ -3188,13 +3210,13 @@
       <c r="B137" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C137" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D137" s="20" t="s">
+      <c r="C137" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D137" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E137" s="20"/>
+      <c r="E137" s="17"/>
       <c r="F137" s="6" t="s">
         <v>10</v>
       </c>
@@ -3208,13 +3230,13 @@
       <c r="B138" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C138" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D138" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E138" s="20"/>
+      <c r="C138" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D138" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E138" s="17"/>
       <c r="F138" s="6" t="s">
         <v>10</v>
       </c>
@@ -3228,13 +3250,13 @@
       <c r="B139" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C139" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D139" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E139" s="20"/>
+      <c r="C139" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D139" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E139" s="17"/>
       <c r="F139" s="6" t="s">
         <v>10</v>
       </c>
@@ -3248,13 +3270,13 @@
       <c r="B140" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C140" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D140" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E140" s="20"/>
+      <c r="C140" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D140" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E140" s="17"/>
       <c r="F140" s="6" t="s">
         <v>10</v>
       </c>
@@ -3268,13 +3290,13 @@
       <c r="B141" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C141" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D141" s="20" t="s">
+      <c r="C141" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D141" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E141" s="20"/>
+      <c r="E141" s="17"/>
       <c r="F141" s="6" t="s">
         <v>10</v>
       </c>
@@ -3288,13 +3310,13 @@
       <c r="B142" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C142" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D142" s="20" t="s">
+      <c r="C142" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D142" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E142" s="20"/>
+      <c r="E142" s="17"/>
       <c r="F142" s="6" t="s">
         <v>10</v>
       </c>
@@ -3308,13 +3330,13 @@
       <c r="B143" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C143" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D143" s="20" t="s">
+      <c r="C143" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D143" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E143" s="20"/>
+      <c r="E143" s="17"/>
       <c r="F143" s="6" t="s">
         <v>10</v>
       </c>
@@ -3328,13 +3350,13 @@
       <c r="B144" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C144" s="20" t="s">
+      <c r="C144" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D144" s="20" t="s">
+      <c r="D144" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E144" s="20"/>
+      <c r="E144" s="17"/>
       <c r="F144" s="6" t="s">
         <v>10</v>
       </c>
@@ -3348,13 +3370,13 @@
       <c r="B145" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C145" s="20" t="s">
+      <c r="C145" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D145" s="20" t="s">
+      <c r="D145" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E145" s="20"/>
+      <c r="E145" s="17"/>
       <c r="F145" s="6" t="s">
         <v>10</v>
       </c>
@@ -3368,13 +3390,13 @@
       <c r="B146" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C146" s="20" t="s">
+      <c r="C146" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D146" s="20" t="s">
+      <c r="D146" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E146" s="20"/>
+      <c r="E146" s="17"/>
       <c r="F146" s="6" t="s">
         <v>10</v>
       </c>
@@ -3388,13 +3410,13 @@
       <c r="B147" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C147" s="20" t="s">
+      <c r="C147" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D147" s="20" t="s">
+      <c r="D147" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E147" s="20"/>
+      <c r="E147" s="17"/>
       <c r="F147" s="6" t="s">
         <v>10</v>
       </c>
@@ -3408,13 +3430,13 @@
       <c r="B148" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C148" s="20" t="s">
+      <c r="C148" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D148" s="20" t="s">
+      <c r="D148" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E148" s="20"/>
+      <c r="E148" s="17"/>
       <c r="F148" s="6" t="s">
         <v>10</v>
       </c>
@@ -3428,13 +3450,13 @@
       <c r="B149" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C149" s="20" t="s">
+      <c r="C149" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D149" s="20" t="s">
+      <c r="D149" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E149" s="20"/>
+      <c r="E149" s="17"/>
       <c r="F149" s="6" t="s">
         <v>10</v>
       </c>
@@ -3448,13 +3470,13 @@
       <c r="B150" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C150" s="20" t="s">
+      <c r="C150" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D150" s="20" t="s">
+      <c r="D150" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E150" s="20"/>
+      <c r="E150" s="17"/>
       <c r="F150" s="6" t="s">
         <v>10</v>
       </c>
@@ -3468,13 +3490,13 @@
       <c r="B151" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C151" s="20" t="s">
+      <c r="C151" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D151" s="20" t="s">
+      <c r="D151" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E151" s="20"/>
+      <c r="E151" s="17"/>
       <c r="F151" s="6" t="s">
         <v>10</v>
       </c>
@@ -3488,653 +3510,653 @@
       <c r="B152" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C152" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D152" s="20" t="s">
+      <c r="C152" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D152" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E152" s="20"/>
+      <c r="E152" s="17"/>
       <c r="F152" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="7"/>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="8" t="n">
+      <c r="A153" s="22" t="n">
         <f aca="false">A152+1</f>
         <v>44803</v>
       </c>
-      <c r="B153" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C153" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D153" s="20" t="s">
+      <c r="B153" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C153" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D153" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E153" s="20"/>
+      <c r="E153" s="24"/>
       <c r="F153" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="7"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="8" t="n">
+      <c r="A154" s="22" t="n">
         <f aca="false">A153+1</f>
         <v>44804</v>
       </c>
-      <c r="B154" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C154" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D154" s="20" t="s">
+      <c r="B154" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D154" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E154" s="20"/>
+      <c r="E154" s="24"/>
       <c r="F154" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="7"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="8" t="n">
+      <c r="A155" s="22" t="n">
         <f aca="false">A154+1</f>
         <v>44805</v>
       </c>
-      <c r="B155" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C155" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D155" s="20" t="s">
+      <c r="B155" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C155" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D155" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E155" s="20"/>
+      <c r="E155" s="24"/>
       <c r="F155" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="7"/>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="8" t="n">
+      <c r="A156" s="22" t="n">
         <f aca="false">A155+1</f>
         <v>44806</v>
       </c>
-      <c r="B156" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C156" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D156" s="20" t="s">
+      <c r="B156" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C156" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D156" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E156" s="20"/>
+      <c r="E156" s="24"/>
       <c r="F156" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="7"/>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="8" t="n">
+      <c r="A157" s="22" t="n">
         <f aca="false">A156+1</f>
         <v>44807</v>
       </c>
-      <c r="B157" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C157" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D157" s="20" t="s">
+      <c r="B157" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C157" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D157" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E157" s="20"/>
+      <c r="E157" s="24"/>
       <c r="F157" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="7"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A158" s="8" t="n">
+      <c r="A158" s="22" t="n">
         <f aca="false">A157+1</f>
         <v>44808</v>
       </c>
-      <c r="B158" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C158" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D158" s="20" t="s">
+      <c r="B158" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C158" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D158" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E158" s="20"/>
+      <c r="E158" s="24"/>
       <c r="F158" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="7"/>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A159" s="8" t="n">
+      <c r="A159" s="22" t="n">
         <f aca="false">A158+1</f>
         <v>44809</v>
       </c>
-      <c r="B159" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C159" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D159" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E159" s="20"/>
+      <c r="B159" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C159" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D159" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E159" s="24"/>
       <c r="F159" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="7"/>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A160" s="8" t="n">
+      <c r="A160" s="22" t="n">
         <f aca="false">A159+1</f>
         <v>44810</v>
       </c>
-      <c r="B160" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C160" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D160" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E160" s="20"/>
+      <c r="B160" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D160" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E160" s="24"/>
       <c r="F160" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="7"/>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A161" s="8" t="n">
+      <c r="A161" s="22" t="n">
         <f aca="false">A160+1</f>
         <v>44811</v>
       </c>
-      <c r="B161" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C161" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D161" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E161" s="20"/>
+      <c r="B161" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C161" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D161" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E161" s="24"/>
       <c r="F161" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="7"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A162" s="8" t="n">
+      <c r="A162" s="22" t="n">
         <f aca="false">A161+1</f>
         <v>44812</v>
       </c>
-      <c r="B162" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C162" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D162" s="20" t="s">
+      <c r="B162" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C162" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D162" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E162" s="20"/>
+      <c r="E162" s="24"/>
       <c r="F162" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="7"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A163" s="8" t="n">
+      <c r="A163" s="22" t="n">
         <f aca="false">A162+1</f>
         <v>44813</v>
       </c>
-      <c r="B163" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C163" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D163" s="20" t="s">
+      <c r="B163" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C163" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D163" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E163" s="20"/>
+      <c r="E163" s="24"/>
       <c r="F163" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="7"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A164" s="8" t="n">
+      <c r="A164" s="22" t="n">
         <f aca="false">A163+1</f>
         <v>44814</v>
       </c>
-      <c r="B164" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C164" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D164" s="20" t="s">
+      <c r="B164" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C164" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D164" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E164" s="20"/>
+      <c r="E164" s="24"/>
       <c r="F164" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="7"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A165" s="8" t="n">
+      <c r="A165" s="22" t="n">
         <f aca="false">A164+1</f>
         <v>44815</v>
       </c>
-      <c r="B165" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C165" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D165" s="20" t="s">
+      <c r="B165" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C165" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D165" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E165" s="20"/>
+      <c r="E165" s="24"/>
       <c r="F165" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="7"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A166" s="8" t="n">
+      <c r="A166" s="22" t="n">
         <f aca="false">A165+1</f>
         <v>44816</v>
       </c>
-      <c r="B166" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C166" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D166" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E166" s="20"/>
+      <c r="B166" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C166" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D166" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E166" s="24"/>
       <c r="F166" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="7"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A167" s="8" t="n">
+      <c r="A167" s="22" t="n">
         <f aca="false">A166+1</f>
         <v>44817</v>
       </c>
-      <c r="B167" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C167" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D167" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E167" s="20"/>
+      <c r="B167" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C167" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D167" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E167" s="24"/>
       <c r="F167" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="7"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A168" s="8" t="n">
+      <c r="A168" s="22" t="n">
         <f aca="false">A167+1</f>
         <v>44818</v>
       </c>
-      <c r="B168" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C168" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D168" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E168" s="20"/>
+      <c r="B168" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C168" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D168" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E168" s="24"/>
       <c r="F168" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="7"/>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A169" s="8" t="n">
+      <c r="A169" s="22" t="n">
         <f aca="false">A168+1</f>
         <v>44819</v>
       </c>
-      <c r="B169" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C169" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D169" s="20" t="s">
+      <c r="B169" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C169" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D169" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E169" s="20"/>
+      <c r="E169" s="24"/>
       <c r="F169" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="7"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A170" s="8" t="n">
+      <c r="A170" s="22" t="n">
         <f aca="false">A169+1</f>
         <v>44820</v>
       </c>
-      <c r="B170" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C170" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D170" s="20" t="s">
+      <c r="B170" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C170" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D170" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E170" s="20"/>
+      <c r="E170" s="24"/>
       <c r="F170" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="7"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A171" s="8" t="n">
+      <c r="A171" s="22" t="n">
         <f aca="false">A170+1</f>
         <v>44821</v>
       </c>
-      <c r="B171" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C171" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D171" s="20" t="s">
+      <c r="B171" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C171" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D171" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E171" s="20"/>
+      <c r="E171" s="24"/>
       <c r="F171" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="7"/>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A172" s="8" t="n">
+      <c r="A172" s="22" t="n">
         <f aca="false">A171+1</f>
         <v>44822</v>
       </c>
-      <c r="B172" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C172" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D172" s="20" t="s">
+      <c r="B172" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C172" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D172" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E172" s="20"/>
+      <c r="E172" s="24"/>
       <c r="F172" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="7"/>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A173" s="4" t="n">
+      <c r="A173" s="25" t="n">
         <f aca="false">A172+1</f>
         <v>44823</v>
       </c>
-      <c r="B173" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C173" s="22" t="s">
+      <c r="B173" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C173" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D173" s="22" t="s">
+      <c r="D173" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E173" s="22"/>
+      <c r="E173" s="26"/>
       <c r="F173" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="7"/>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A174" s="4" t="n">
+      <c r="A174" s="25" t="n">
         <f aca="false">A173+1</f>
         <v>44824</v>
       </c>
-      <c r="B174" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C174" s="22" t="s">
+      <c r="B174" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C174" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D174" s="22" t="s">
+      <c r="D174" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E174" s="22"/>
+      <c r="E174" s="26"/>
       <c r="F174" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="7"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A175" s="4" t="n">
+      <c r="A175" s="25" t="n">
         <f aca="false">A174+1</f>
         <v>44825</v>
       </c>
-      <c r="B175" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C175" s="22" t="s">
+      <c r="B175" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C175" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D175" s="22" t="s">
+      <c r="D175" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E175" s="22"/>
+      <c r="E175" s="26"/>
       <c r="F175" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="7"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A176" s="4" t="n">
+      <c r="A176" s="25" t="n">
         <f aca="false">A175+1</f>
         <v>44826</v>
       </c>
-      <c r="B176" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C176" s="22" t="s">
+      <c r="B176" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D176" s="22" t="s">
+      <c r="C176" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D176" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E176" s="22"/>
+      <c r="E176" s="26"/>
       <c r="F176" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="7"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A177" s="4" t="n">
+      <c r="A177" s="25" t="n">
         <f aca="false">A176+1</f>
         <v>44827</v>
       </c>
-      <c r="B177" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C177" s="22" t="s">
+      <c r="B177" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D177" s="22" t="s">
+      <c r="C177" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D177" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E177" s="22"/>
+      <c r="E177" s="26"/>
       <c r="F177" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="7"/>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A178" s="4" t="n">
+      <c r="A178" s="25" t="n">
         <f aca="false">A177+1</f>
         <v>44828</v>
       </c>
-      <c r="B178" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C178" s="22" t="s">
+      <c r="B178" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D178" s="22" t="s">
+      <c r="C178" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D178" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E178" s="22"/>
+      <c r="E178" s="26"/>
       <c r="F178" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="7"/>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A179" s="4" t="n">
+      <c r="A179" s="25" t="n">
         <f aca="false">A178+1</f>
         <v>44829</v>
       </c>
-      <c r="B179" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C179" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D179" s="22" t="s">
+      <c r="B179" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C179" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D179" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E179" s="22"/>
+      <c r="E179" s="26"/>
       <c r="F179" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="7"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A180" s="4" t="n">
+      <c r="A180" s="25" t="n">
         <f aca="false">A179+1</f>
         <v>44830</v>
       </c>
-      <c r="B180" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C180" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D180" s="22" t="s">
+      <c r="B180" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C180" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D180" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E180" s="22"/>
+      <c r="E180" s="26"/>
       <c r="F180" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="7"/>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A181" s="4" t="n">
+      <c r="A181" s="25" t="n">
         <f aca="false">A180+1</f>
         <v>44831</v>
       </c>
-      <c r="B181" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C181" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D181" s="22" t="s">
+      <c r="B181" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C181" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D181" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E181" s="22"/>
+      <c r="E181" s="26"/>
       <c r="F181" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="7"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A182" s="4" t="n">
+      <c r="A182" s="25" t="n">
         <f aca="false">A181+1</f>
         <v>44832</v>
       </c>
-      <c r="B182" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C182" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D182" s="22" t="s">
+      <c r="B182" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C182" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D182" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E182" s="22"/>
+      <c r="E182" s="26"/>
       <c r="F182" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="7"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A183" s="4" t="n">
+      <c r="A183" s="25" t="n">
         <f aca="false">A182+1</f>
         <v>44833</v>
       </c>
-      <c r="B183" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C183" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D183" s="22" t="s">
+      <c r="B183" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C183" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D183" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E183" s="22"/>
+      <c r="E183" s="26"/>
       <c r="F183" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="7"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A184" s="4" t="n">
+      <c r="A184" s="25" t="n">
         <f aca="false">A183+1</f>
         <v>44834</v>
       </c>
-      <c r="B184" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C184" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D184" s="22" t="s">
+      <c r="B184" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C184" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D184" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E184" s="22"/>
+      <c r="E184" s="26"/>
       <c r="F184" s="6" t="s">
         <v>10</v>
       </c>

--- a/scripts/ESO-2.2m/schedules/P109/schedule-ESO-2.2m-P109.xlsx
+++ b/scripts/ESO-2.2m/schedules/P109/schedule-ESO-2.2m-P109.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="47">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -133,25 +133,37 @@
     <t xml:space="preserve">Sam, Régis</t>
   </si>
   <si>
+    <t xml:space="preserve">Downtime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Storm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evacuation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hobson, Weather</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angela, Régis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moyano</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maren, Régis</t>
   </si>
   <si>
-    <t xml:space="preserve">Moyano</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cure</t>
   </si>
   <si>
-    <t xml:space="preserve">Hobson, Weather</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angela, Régis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chile</t>
+    <t xml:space="preserve">Hobson/Zakhozhay</t>
   </si>
 </sst>
 </file>
@@ -234,7 +246,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,6 +275,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFAFD095"/>
         <bgColor rgb="FFB4C7DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB66C"/>
+        <bgColor rgb="FFFF99CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -300,7 +318,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -373,12 +391,24 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -389,24 +419,8 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -459,7 +473,7 @@
       <rgbColor rgb="FFAFD095"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFB66C"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -488,13 +502,11 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D158" activeCellId="0" sqref="D158"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M6" activeCellId="0" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.18359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.17578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.78"/>
@@ -2583,260 +2595,242 @@
       <c r="G105" s="7"/>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="8" t="n">
+      <c r="A106" s="18" t="n">
         <f aca="false">A105+1</f>
         <v>44756</v>
       </c>
-      <c r="B106" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C106" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D106" s="17" t="s">
+      <c r="B106" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C106" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D106" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E106" s="17"/>
+      <c r="E106" s="20"/>
       <c r="F106" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="7"/>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="8" t="n">
+      <c r="A107" s="18" t="n">
         <f aca="false">A106+1</f>
         <v>44757</v>
       </c>
-      <c r="B107" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C107" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D107" s="17" t="s">
+      <c r="B107" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C107" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D107" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E107" s="17"/>
+      <c r="E107" s="20"/>
       <c r="F107" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="7"/>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="8" t="n">
+      <c r="A108" s="18" t="n">
         <f aca="false">A107+1</f>
         <v>44758</v>
       </c>
-      <c r="B108" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C108" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D108" s="17" t="s">
+      <c r="B108" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C108" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D108" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E108" s="17"/>
+      <c r="E108" s="20"/>
       <c r="F108" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="7"/>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="8" t="n">
+      <c r="A109" s="18" t="n">
         <f aca="false">A108+1</f>
         <v>44759</v>
       </c>
-      <c r="B109" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C109" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D109" s="17" t="s">
+      <c r="B109" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C109" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D109" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E109" s="17"/>
+      <c r="E109" s="20"/>
       <c r="F109" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="7"/>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="8" t="n">
+      <c r="A110" s="18" t="n">
         <f aca="false">A109+1</f>
         <v>44760</v>
       </c>
-      <c r="B110" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C110" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D110" s="17" t="s">
+      <c r="B110" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E110" s="17"/>
+      <c r="C110" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D110" s="20"/>
+      <c r="E110" s="20"/>
       <c r="F110" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="7"/>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="8" t="n">
+      <c r="A111" s="18" t="n">
         <f aca="false">A110+1</f>
         <v>44761</v>
       </c>
-      <c r="B111" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C111" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D111" s="17" t="s">
+      <c r="B111" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E111" s="17"/>
+      <c r="C111" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D111" s="20"/>
+      <c r="E111" s="20"/>
       <c r="F111" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="7"/>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="8" t="n">
+      <c r="A112" s="18" t="n">
         <f aca="false">A111+1</f>
         <v>44762</v>
       </c>
-      <c r="B112" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C112" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D112" s="17" t="s">
+      <c r="B112" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E112" s="17"/>
+      <c r="C112" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D112" s="20"/>
+      <c r="E112" s="20"/>
       <c r="F112" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="7"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="8" t="n">
+      <c r="A113" s="18" t="n">
         <f aca="false">A112+1</f>
         <v>44763</v>
       </c>
-      <c r="B113" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C113" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D113" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E113" s="17"/>
+      <c r="B113" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C113" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D113" s="20"/>
+      <c r="E113" s="20"/>
       <c r="F113" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="7"/>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="8" t="n">
+      <c r="A114" s="18" t="n">
         <f aca="false">A113+1</f>
         <v>44764</v>
       </c>
-      <c r="B114" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C114" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D114" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E114" s="17"/>
+      <c r="B114" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C114" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D114" s="20"/>
+      <c r="E114" s="20"/>
       <c r="F114" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="7"/>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="8" t="n">
+      <c r="A115" s="18" t="n">
         <f aca="false">A114+1</f>
         <v>44765</v>
       </c>
-      <c r="B115" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C115" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D115" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E115" s="17"/>
+      <c r="B115" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C115" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D115" s="20"/>
+      <c r="E115" s="20"/>
       <c r="F115" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="7"/>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="8" t="n">
+      <c r="A116" s="18" t="n">
         <f aca="false">A115+1</f>
         <v>44766</v>
       </c>
-      <c r="B116" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C116" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D116" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E116" s="17"/>
+      <c r="B116" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C116" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D116" s="20"/>
+      <c r="E116" s="20"/>
       <c r="F116" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="7"/>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="8" t="n">
+      <c r="A117" s="18" t="n">
         <f aca="false">A116+1</f>
         <v>44767</v>
       </c>
-      <c r="B117" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C117" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D117" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E117" s="17"/>
+      <c r="B117" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C117" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D117" s="20"/>
+      <c r="E117" s="20"/>
       <c r="F117" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="7"/>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="8" t="n">
+      <c r="A118" s="18" t="n">
         <f aca="false">A117+1</f>
         <v>44768</v>
       </c>
-      <c r="B118" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C118" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D118" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E118" s="17"/>
+      <c r="B118" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C118" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D118" s="20"/>
+      <c r="E118" s="20"/>
       <c r="F118" s="6" t="s">
         <v>10</v>
       </c>
@@ -2848,15 +2842,13 @@
         <v>44769</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C119" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D119" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E119" s="21"/>
+        <v>38</v>
+      </c>
+      <c r="D119" s="20"/>
+      <c r="E119" s="20"/>
       <c r="F119" s="6" t="s">
         <v>10</v>
       </c>
@@ -2868,15 +2860,13 @@
         <v>44770</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C120" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D120" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E120" s="21"/>
+        <v>38</v>
+      </c>
+      <c r="D120" s="20"/>
+      <c r="E120" s="20"/>
       <c r="F120" s="6" t="s">
         <v>10</v>
       </c>
@@ -2888,15 +2878,13 @@
         <v>44771</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C121" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D121" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E121" s="21"/>
+        <v>38</v>
+      </c>
+      <c r="D121" s="20"/>
+      <c r="E121" s="20"/>
       <c r="F121" s="6" t="s">
         <v>10</v>
       </c>
@@ -2908,15 +2896,13 @@
         <v>44772</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C122" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D122" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="21"/>
+      <c r="D122" s="20"/>
+      <c r="E122" s="20"/>
       <c r="F122" s="6" t="s">
         <v>10</v>
       </c>
@@ -2928,15 +2914,13 @@
         <v>44773</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C123" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D123" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" s="21"/>
+      <c r="D123" s="20"/>
+      <c r="E123" s="20"/>
       <c r="F123" s="6" t="s">
         <v>10</v>
       </c>
@@ -2948,15 +2932,13 @@
         <v>44774</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C124" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D124" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E124" s="21"/>
+      <c r="D124" s="20"/>
+      <c r="E124" s="20"/>
       <c r="F124" s="6" t="s">
         <v>10</v>
       </c>
@@ -2968,15 +2950,13 @@
         <v>44775</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C125" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D125" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E125" s="21"/>
+        <v>38</v>
+      </c>
+      <c r="D125" s="20"/>
+      <c r="E125" s="20"/>
       <c r="F125" s="6" t="s">
         <v>10</v>
       </c>
@@ -2988,15 +2968,13 @@
         <v>44776</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C126" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D126" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E126" s="21"/>
+        <v>38</v>
+      </c>
+      <c r="D126" s="20"/>
+      <c r="E126" s="20"/>
       <c r="F126" s="6" t="s">
         <v>10</v>
       </c>
@@ -3008,15 +2986,13 @@
         <v>44777</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C127" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D127" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E127" s="21"/>
+        <v>38</v>
+      </c>
+      <c r="D127" s="20"/>
+      <c r="E127" s="20"/>
       <c r="F127" s="6" t="s">
         <v>10</v>
       </c>
@@ -3028,15 +3004,13 @@
         <v>44778</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D128" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E128" s="21"/>
+        <v>38</v>
+      </c>
+      <c r="D128" s="20"/>
+      <c r="E128" s="20"/>
       <c r="F128" s="6" t="s">
         <v>10</v>
       </c>
@@ -3048,15 +3022,13 @@
         <v>44779</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C129" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D129" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E129" s="21"/>
+        <v>38</v>
+      </c>
+      <c r="D129" s="20"/>
+      <c r="E129" s="20"/>
       <c r="F129" s="6" t="s">
         <v>10</v>
       </c>
@@ -3068,115 +3040,113 @@
         <v>44780</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C130" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D130" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E130" s="21"/>
+        <v>38</v>
+      </c>
+      <c r="D130" s="20"/>
+      <c r="E130" s="20"/>
       <c r="F130" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="7"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="8" t="n">
+      <c r="A131" s="18" t="n">
         <f aca="false">A130+1</f>
         <v>44781</v>
       </c>
-      <c r="B131" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C131" s="17" t="s">
+      <c r="B131" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C131" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D131" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E131" s="17"/>
+      <c r="D131" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E131" s="20"/>
       <c r="F131" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="7"/>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="8" t="n">
+      <c r="A132" s="18" t="n">
         <f aca="false">A131+1</f>
         <v>44782</v>
       </c>
-      <c r="B132" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C132" s="17" t="s">
+      <c r="B132" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C132" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D132" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E132" s="17"/>
+      <c r="D132" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E132" s="20"/>
       <c r="F132" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="7"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="8" t="n">
+      <c r="A133" s="18" t="n">
         <f aca="false">A132+1</f>
         <v>44783</v>
       </c>
-      <c r="B133" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C133" s="17" t="s">
+      <c r="B133" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C133" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D133" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E133" s="17"/>
+      <c r="D133" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E133" s="20"/>
       <c r="F133" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="7"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="8" t="n">
+      <c r="A134" s="18" t="n">
         <f aca="false">A133+1</f>
         <v>44784</v>
       </c>
-      <c r="B134" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C134" s="17" t="s">
+      <c r="B134" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C134" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D134" s="17" t="s">
+      <c r="D134" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E134" s="17"/>
+      <c r="E134" s="20"/>
       <c r="F134" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="7"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="8" t="n">
+      <c r="A135" s="18" t="n">
         <f aca="false">A134+1</f>
         <v>44785</v>
       </c>
-      <c r="B135" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C135" s="17" t="s">
+      <c r="B135" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C135" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D135" s="17" t="s">
+      <c r="D135" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E135" s="17"/>
+      <c r="E135" s="20"/>
       <c r="F135" s="6" t="s">
         <v>10</v>
       </c>
@@ -3191,7 +3161,7 @@
         <v>13</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D136" s="17" t="s">
         <v>15</v>
@@ -3211,7 +3181,7 @@
         <v>13</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D137" s="17" t="s">
         <v>15</v>
@@ -3231,10 +3201,10 @@
         <v>13</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E138" s="17"/>
       <c r="F138" s="6" t="s">
@@ -3251,10 +3221,10 @@
         <v>13</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E139" s="17"/>
       <c r="F139" s="6" t="s">
@@ -3271,10 +3241,10 @@
         <v>13</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E140" s="17"/>
       <c r="F140" s="6" t="s">
@@ -3291,7 +3261,7 @@
         <v>13</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D141" s="17" t="s">
         <v>17</v>
@@ -3311,7 +3281,7 @@
         <v>13</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D142" s="17" t="s">
         <v>17</v>
@@ -3331,7 +3301,7 @@
         <v>13</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D143" s="17" t="s">
         <v>17</v>
@@ -3350,7 +3320,7 @@
       <c r="B144" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C144" s="17" t="s">
+      <c r="C144" s="0" t="s">
         <v>25</v>
       </c>
       <c r="D144" s="17" t="s">
@@ -3370,7 +3340,7 @@
       <c r="B145" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C145" s="17" t="s">
+      <c r="C145" s="0" t="s">
         <v>25</v>
       </c>
       <c r="D145" s="17" t="s">
@@ -3390,7 +3360,7 @@
       <c r="B146" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C146" s="17" t="s">
+      <c r="C146" s="0" t="s">
         <v>25</v>
       </c>
       <c r="D146" s="17" t="s">
@@ -3410,7 +3380,7 @@
       <c r="B147" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C147" s="17" t="s">
+      <c r="C147" s="0" t="s">
         <v>25</v>
       </c>
       <c r="D147" s="17" t="s">
@@ -3430,7 +3400,7 @@
       <c r="B148" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C148" s="17" t="s">
+      <c r="C148" s="0" t="s">
         <v>25</v>
       </c>
       <c r="D148" s="17" t="s">
@@ -3450,7 +3420,7 @@
       <c r="B149" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C149" s="17" t="s">
+      <c r="C149" s="0" t="s">
         <v>25</v>
       </c>
       <c r="D149" s="17" t="s">
@@ -3470,7 +3440,7 @@
       <c r="B150" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C150" s="17" t="s">
+      <c r="C150" s="0" t="s">
         <v>25</v>
       </c>
       <c r="D150" s="17" t="s">
@@ -3490,7 +3460,7 @@
       <c r="B151" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C151" s="17" t="s">
+      <c r="C151" s="0" t="s">
         <v>25</v>
       </c>
       <c r="D151" s="17" t="s">
@@ -3510,8 +3480,8 @@
       <c r="B152" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C152" s="17" t="s">
-        <v>41</v>
+      <c r="C152" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="D152" s="17" t="s">
         <v>19</v>
@@ -3523,255 +3493,255 @@
       <c r="G152" s="7"/>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="22" t="n">
+      <c r="A153" s="8" t="n">
         <f aca="false">A152+1</f>
         <v>44803</v>
       </c>
-      <c r="B153" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C153" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D153" s="24" t="s">
+      <c r="B153" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C153" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D153" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E153" s="24"/>
+      <c r="E153" s="17"/>
       <c r="F153" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="7"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="22" t="n">
+      <c r="A154" s="8" t="n">
         <f aca="false">A153+1</f>
         <v>44804</v>
       </c>
-      <c r="B154" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C154" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D154" s="24" t="s">
+      <c r="B154" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D154" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E154" s="24"/>
+      <c r="E154" s="17"/>
       <c r="F154" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="7"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="22" t="n">
+      <c r="A155" s="8" t="n">
         <f aca="false">A154+1</f>
         <v>44805</v>
       </c>
-      <c r="B155" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C155" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D155" s="24" t="s">
+      <c r="B155" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C155" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D155" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E155" s="24"/>
+      <c r="E155" s="17"/>
       <c r="F155" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="7"/>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="22" t="n">
+      <c r="A156" s="8" t="n">
         <f aca="false">A155+1</f>
         <v>44806</v>
       </c>
-      <c r="B156" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C156" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D156" s="24" t="s">
+      <c r="B156" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C156" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D156" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E156" s="24"/>
+      <c r="E156" s="17"/>
       <c r="F156" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="7"/>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="22" t="n">
+      <c r="A157" s="8" t="n">
         <f aca="false">A156+1</f>
         <v>44807</v>
       </c>
-      <c r="B157" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C157" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D157" s="24" t="s">
+      <c r="B157" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C157" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D157" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E157" s="24"/>
+      <c r="E157" s="17"/>
       <c r="F157" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="7"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A158" s="22" t="n">
+      <c r="A158" s="8" t="n">
         <f aca="false">A157+1</f>
         <v>44808</v>
       </c>
-      <c r="B158" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C158" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D158" s="24" t="s">
+      <c r="B158" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C158" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D158" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E158" s="24"/>
+      <c r="E158" s="17"/>
       <c r="F158" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="7"/>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A159" s="22" t="n">
+      <c r="A159" s="8" t="n">
         <f aca="false">A158+1</f>
         <v>44809</v>
       </c>
-      <c r="B159" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C159" s="17" t="s">
+      <c r="B159" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C159" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D159" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D159" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E159" s="24"/>
+      <c r="E159" s="17"/>
       <c r="F159" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="7"/>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A160" s="22" t="n">
+      <c r="A160" s="8" t="n">
         <f aca="false">A159+1</f>
         <v>44810</v>
       </c>
-      <c r="B160" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C160" s="17" t="s">
+      <c r="B160" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D160" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D160" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E160" s="24"/>
+      <c r="E160" s="17"/>
       <c r="F160" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="7"/>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A161" s="22" t="n">
+      <c r="A161" s="8" t="n">
         <f aca="false">A160+1</f>
         <v>44811</v>
       </c>
-      <c r="B161" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C161" s="17" t="s">
+      <c r="B161" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C161" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D161" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D161" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E161" s="24"/>
+      <c r="E161" s="17"/>
       <c r="F161" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="7"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A162" s="22" t="n">
+      <c r="A162" s="8" t="n">
         <f aca="false">A161+1</f>
         <v>44812</v>
       </c>
-      <c r="B162" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C162" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D162" s="24" t="s">
+      <c r="B162" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C162" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D162" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E162" s="24"/>
+      <c r="E162" s="17"/>
       <c r="F162" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="7"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A163" s="22" t="n">
+      <c r="A163" s="8" t="n">
         <f aca="false">A162+1</f>
         <v>44813</v>
       </c>
-      <c r="B163" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C163" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D163" s="24" t="s">
+      <c r="B163" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C163" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D163" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E163" s="24"/>
+      <c r="E163" s="17"/>
       <c r="F163" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="7"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A164" s="22" t="n">
+      <c r="A164" s="8" t="n">
         <f aca="false">A163+1</f>
         <v>44814</v>
       </c>
-      <c r="B164" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C164" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D164" s="24" t="s">
+      <c r="B164" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C164" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D164" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E164" s="24"/>
+      <c r="E164" s="17"/>
       <c r="F164" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="7"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A165" s="22" t="n">
+      <c r="A165" s="21" t="n">
         <f aca="false">A164+1</f>
         <v>44815</v>
       </c>
-      <c r="B165" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C165" s="17" t="s">
-        <v>41</v>
+      <c r="B165" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C165" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="D165" s="24" t="s">
         <v>15</v>
@@ -3783,18 +3753,18 @@
       <c r="G165" s="7"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A166" s="22" t="n">
+      <c r="A166" s="21" t="n">
         <f aca="false">A165+1</f>
         <v>44816</v>
       </c>
-      <c r="B166" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C166" s="17" t="s">
-        <v>41</v>
+      <c r="B166" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C166" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="D166" s="24" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E166" s="24"/>
       <c r="F166" s="6" t="s">
@@ -3803,18 +3773,18 @@
       <c r="G166" s="7"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A167" s="22" t="n">
+      <c r="A167" s="21" t="n">
         <f aca="false">A166+1</f>
         <v>44817</v>
       </c>
-      <c r="B167" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C167" s="17" t="s">
-        <v>41</v>
+      <c r="B167" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C167" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="D167" s="24" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E167" s="24"/>
       <c r="F167" s="6" t="s">
@@ -3823,18 +3793,18 @@
       <c r="G167" s="7"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A168" s="22" t="n">
+      <c r="A168" s="21" t="n">
         <f aca="false">A167+1</f>
         <v>44818</v>
       </c>
-      <c r="B168" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C168" s="17" t="s">
-        <v>41</v>
+      <c r="B168" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C168" s="23" t="s">
+        <v>45</v>
       </c>
       <c r="D168" s="24" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E168" s="24"/>
       <c r="F168" s="6" t="s">
@@ -3843,15 +3813,15 @@
       <c r="G168" s="7"/>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A169" s="22" t="n">
+      <c r="A169" s="21" t="n">
         <f aca="false">A168+1</f>
         <v>44819</v>
       </c>
-      <c r="B169" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C169" s="17" t="s">
-        <v>41</v>
+      <c r="B169" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C169" s="23" t="s">
+        <v>45</v>
       </c>
       <c r="D169" s="24" t="s">
         <v>9</v>
@@ -3863,15 +3833,15 @@
       <c r="G169" s="7"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A170" s="22" t="n">
+      <c r="A170" s="21" t="n">
         <f aca="false">A169+1</f>
         <v>44820</v>
       </c>
-      <c r="B170" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C170" s="17" t="s">
-        <v>41</v>
+      <c r="B170" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C170" s="23" t="s">
+        <v>45</v>
       </c>
       <c r="D170" s="24" t="s">
         <v>9</v>
@@ -3883,15 +3853,15 @@
       <c r="G170" s="7"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A171" s="22" t="n">
+      <c r="A171" s="21" t="n">
         <f aca="false">A170+1</f>
         <v>44821</v>
       </c>
-      <c r="B171" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C171" s="17" t="s">
-        <v>41</v>
+      <c r="B171" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C171" s="23" t="s">
+        <v>8</v>
       </c>
       <c r="D171" s="24" t="s">
         <v>9</v>
@@ -3903,15 +3873,15 @@
       <c r="G171" s="7"/>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A172" s="22" t="n">
+      <c r="A172" s="21" t="n">
         <f aca="false">A171+1</f>
         <v>44822</v>
       </c>
-      <c r="B172" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C172" s="17" t="s">
-        <v>41</v>
+      <c r="B172" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C172" s="23" t="s">
+        <v>8</v>
       </c>
       <c r="D172" s="24" t="s">
         <v>9</v>
@@ -3923,240 +3893,240 @@
       <c r="G172" s="7"/>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A173" s="25" t="n">
+      <c r="A173" s="4" t="n">
         <f aca="false">A172+1</f>
         <v>44823</v>
       </c>
-      <c r="B173" s="26" t="s">
+      <c r="B173" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C173" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D173" s="26" t="s">
+      <c r="C173" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D173" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E173" s="26"/>
+      <c r="E173" s="22"/>
       <c r="F173" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="7"/>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A174" s="25" t="n">
+      <c r="A174" s="4" t="n">
         <f aca="false">A173+1</f>
         <v>44824</v>
       </c>
-      <c r="B174" s="26" t="s">
+      <c r="B174" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C174" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D174" s="26" t="s">
+      <c r="C174" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D174" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E174" s="26"/>
+      <c r="E174" s="22"/>
       <c r="F174" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="7"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A175" s="25" t="n">
+      <c r="A175" s="14" t="n">
         <f aca="false">A174+1</f>
         <v>44825</v>
       </c>
-      <c r="B175" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C175" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D175" s="26" t="s">
+      <c r="B175" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C175" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D175" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E175" s="26"/>
+      <c r="E175" s="16"/>
       <c r="F175" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="7"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A176" s="25" t="n">
+      <c r="A176" s="14" t="n">
         <f aca="false">A175+1</f>
         <v>44826</v>
       </c>
-      <c r="B176" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C176" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D176" s="26" t="s">
+      <c r="B176" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C176" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D176" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E176" s="26"/>
+      <c r="E176" s="16"/>
       <c r="F176" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="7"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A177" s="25" t="n">
+      <c r="A177" s="14" t="n">
         <f aca="false">A176+1</f>
         <v>44827</v>
       </c>
-      <c r="B177" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C177" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D177" s="26" t="s">
+      <c r="B177" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C177" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D177" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E177" s="26"/>
+      <c r="E177" s="16"/>
       <c r="F177" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="7"/>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A178" s="25" t="n">
+      <c r="A178" s="14" t="n">
         <f aca="false">A177+1</f>
         <v>44828</v>
       </c>
-      <c r="B178" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C178" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D178" s="26" t="s">
+      <c r="B178" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C178" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D178" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E178" s="26"/>
+      <c r="E178" s="16"/>
       <c r="F178" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="7"/>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A179" s="25" t="n">
+      <c r="A179" s="14" t="n">
         <f aca="false">A178+1</f>
         <v>44829</v>
       </c>
-      <c r="B179" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C179" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D179" s="26" t="s">
+      <c r="B179" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C179" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D179" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E179" s="26"/>
+      <c r="E179" s="16"/>
       <c r="F179" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="7"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A180" s="25" t="n">
+      <c r="A180" s="14" t="n">
         <f aca="false">A179+1</f>
         <v>44830</v>
       </c>
-      <c r="B180" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C180" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D180" s="26" t="s">
+      <c r="B180" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C180" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D180" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E180" s="26"/>
+      <c r="E180" s="16"/>
       <c r="F180" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="7"/>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A181" s="25" t="n">
+      <c r="A181" s="14" t="n">
         <f aca="false">A180+1</f>
         <v>44831</v>
       </c>
-      <c r="B181" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C181" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D181" s="26" t="s">
+      <c r="B181" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C181" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D181" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E181" s="26"/>
+      <c r="E181" s="16"/>
       <c r="F181" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="7"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A182" s="25" t="n">
+      <c r="A182" s="14" t="n">
         <f aca="false">A181+1</f>
         <v>44832</v>
       </c>
-      <c r="B182" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C182" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D182" s="26" t="s">
+      <c r="B182" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C182" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D182" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E182" s="26"/>
+      <c r="E182" s="16"/>
       <c r="F182" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="7"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A183" s="25" t="n">
+      <c r="A183" s="14" t="n">
         <f aca="false">A182+1</f>
         <v>44833</v>
       </c>
-      <c r="B183" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C183" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D183" s="26" t="s">
+      <c r="B183" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C183" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D183" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E183" s="26"/>
+      <c r="E183" s="16"/>
       <c r="F183" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="7"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A184" s="25" t="n">
+      <c r="A184" s="14" t="n">
         <f aca="false">A183+1</f>
         <v>44834</v>
       </c>
-      <c r="B184" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C184" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D184" s="26" t="s">
+      <c r="B184" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C184" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D184" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E184" s="26"/>
+      <c r="E184" s="16"/>
       <c r="F184" s="6" t="s">
         <v>10</v>
       </c>
